--- a/public/preprocessing/@NgajiGusBaha.xlsx
+++ b/public/preprocessing/@NgajiGusBaha.xlsx
@@ -475,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10561</v>
+        <v>13450</v>
       </c>
       <c r="C2" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -511,10 +511,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10562</v>
+        <v>13451</v>
       </c>
       <c r="C3" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -547,10 +547,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10563</v>
+        <v>13452</v>
       </c>
       <c r="C4" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -583,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10564</v>
+        <v>13453</v>
       </c>
       <c r="C5" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -619,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10565</v>
+        <v>13454</v>
       </c>
       <c r="C6" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -655,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10566</v>
+        <v>13455</v>
       </c>
       <c r="C7" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -691,10 +691,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10567</v>
+        <v>13456</v>
       </c>
       <c r="C8" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -727,10 +727,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10568</v>
+        <v>13457</v>
       </c>
       <c r="C9" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -763,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10569</v>
+        <v>13458</v>
       </c>
       <c r="C10" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -799,10 +799,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10570</v>
+        <v>13459</v>
       </c>
       <c r="C11" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -835,10 +835,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10571</v>
+        <v>13460</v>
       </c>
       <c r="C12" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -871,10 +871,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10572</v>
+        <v>13461</v>
       </c>
       <c r="C13" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10573</v>
+        <v>13462</v>
       </c>
       <c r="C14" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10574</v>
+        <v>13463</v>
       </c>
       <c r="C15" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -979,10 +979,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10575</v>
+        <v>13464</v>
       </c>
       <c r="C16" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1015,10 +1015,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10576</v>
+        <v>13465</v>
       </c>
       <c r="C17" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1051,10 +1051,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10577</v>
+        <v>13466</v>
       </c>
       <c r="C18" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1087,10 +1087,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10578</v>
+        <v>13467</v>
       </c>
       <c r="C19" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1123,10 +1123,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10579</v>
+        <v>13468</v>
       </c>
       <c r="C20" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1159,10 +1159,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10580</v>
+        <v>13469</v>
       </c>
       <c r="C21" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1195,10 +1195,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10581</v>
+        <v>13470</v>
       </c>
       <c r="C22" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1231,10 +1231,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10582</v>
+        <v>13471</v>
       </c>
       <c r="C23" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -1263,10 +1263,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10583</v>
+        <v>13472</v>
       </c>
       <c r="C24" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1299,10 +1299,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10584</v>
+        <v>13473</v>
       </c>
       <c r="C25" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1335,10 +1335,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10585</v>
+        <v>13474</v>
       </c>
       <c r="C26" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10586</v>
+        <v>13475</v>
       </c>
       <c r="C27" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1407,10 +1407,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10587</v>
+        <v>13476</v>
       </c>
       <c r="C28" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1443,10 +1443,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10588</v>
+        <v>13477</v>
       </c>
       <c r="C29" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10589</v>
+        <v>13478</v>
       </c>
       <c r="C30" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10590</v>
+        <v>13479</v>
       </c>
       <c r="C31" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1551,10 +1551,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10591</v>
+        <v>13480</v>
       </c>
       <c r="C32" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10592</v>
+        <v>13481</v>
       </c>
       <c r="C33" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1623,10 +1623,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10593</v>
+        <v>13482</v>
       </c>
       <c r="C34" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1659,10 +1659,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10594</v>
+        <v>13483</v>
       </c>
       <c r="C35" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1695,10 +1695,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10595</v>
+        <v>13484</v>
       </c>
       <c r="C36" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1731,10 +1731,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10596</v>
+        <v>13485</v>
       </c>
       <c r="C37" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1767,10 +1767,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10597</v>
+        <v>13486</v>
       </c>
       <c r="C38" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -1799,10 +1799,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10598</v>
+        <v>13487</v>
       </c>
       <c r="C39" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1835,10 +1835,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10599</v>
+        <v>13488</v>
       </c>
       <c r="C40" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1871,10 +1871,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10600</v>
+        <v>13489</v>
       </c>
       <c r="C41" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1907,10 +1907,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10601</v>
+        <v>13490</v>
       </c>
       <c r="C42" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10602</v>
+        <v>13491</v>
       </c>
       <c r="C43" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1979,10 +1979,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10603</v>
+        <v>13492</v>
       </c>
       <c r="C44" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2015,10 +2015,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10604</v>
+        <v>13493</v>
       </c>
       <c r="C45" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2051,10 +2051,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10605</v>
+        <v>13494</v>
       </c>
       <c r="C46" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2087,10 +2087,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10606</v>
+        <v>13495</v>
       </c>
       <c r="C47" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10607</v>
+        <v>13496</v>
       </c>
       <c r="C48" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2159,10 +2159,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10608</v>
+        <v>13497</v>
       </c>
       <c r="C49" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2195,10 +2195,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10609</v>
+        <v>13498</v>
       </c>
       <c r="C50" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2231,10 +2231,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10610</v>
+        <v>13499</v>
       </c>
       <c r="C51" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2267,10 +2267,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10611</v>
+        <v>13500</v>
       </c>
       <c r="C52" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2303,10 +2303,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10612</v>
+        <v>13501</v>
       </c>
       <c r="C53" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2339,10 +2339,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10613</v>
+        <v>13502</v>
       </c>
       <c r="C54" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2375,10 +2375,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10614</v>
+        <v>13503</v>
       </c>
       <c r="C55" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2411,10 +2411,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10615</v>
+        <v>13504</v>
       </c>
       <c r="C56" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2447,10 +2447,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10616</v>
+        <v>13505</v>
       </c>
       <c r="C57" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2483,10 +2483,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10617</v>
+        <v>13506</v>
       </c>
       <c r="C58" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2519,10 +2519,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10618</v>
+        <v>13507</v>
       </c>
       <c r="C59" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2555,10 +2555,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10619</v>
+        <v>13508</v>
       </c>
       <c r="C60" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10620</v>
+        <v>13509</v>
       </c>
       <c r="C61" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2627,10 +2627,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>10621</v>
+        <v>13510</v>
       </c>
       <c r="C62" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2663,10 +2663,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10622</v>
+        <v>13511</v>
       </c>
       <c r="C63" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2699,10 +2699,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10623</v>
+        <v>13512</v>
       </c>
       <c r="C64" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2735,10 +2735,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>10624</v>
+        <v>13513</v>
       </c>
       <c r="C65" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2771,10 +2771,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10625</v>
+        <v>13514</v>
       </c>
       <c r="C66" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2807,10 +2807,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10626</v>
+        <v>13515</v>
       </c>
       <c r="C67" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10627</v>
+        <v>13516</v>
       </c>
       <c r="C68" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2879,10 +2879,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10628</v>
+        <v>13517</v>
       </c>
       <c r="C69" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2915,10 +2915,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10629</v>
+        <v>13518</v>
       </c>
       <c r="C70" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2951,10 +2951,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10630</v>
+        <v>13519</v>
       </c>
       <c r="C71" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2987,10 +2987,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10631</v>
+        <v>13520</v>
       </c>
       <c r="C72" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3023,10 +3023,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10632</v>
+        <v>13521</v>
       </c>
       <c r="C73" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3059,10 +3059,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10633</v>
+        <v>13522</v>
       </c>
       <c r="C74" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3095,10 +3095,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10634</v>
+        <v>13523</v>
       </c>
       <c r="C75" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3131,10 +3131,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10635</v>
+        <v>13524</v>
       </c>
       <c r="C76" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3167,10 +3167,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10636</v>
+        <v>13525</v>
       </c>
       <c r="C77" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3203,10 +3203,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10637</v>
+        <v>13526</v>
       </c>
       <c r="C78" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3239,10 +3239,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10638</v>
+        <v>13527</v>
       </c>
       <c r="C79" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3275,10 +3275,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10639</v>
+        <v>13528</v>
       </c>
       <c r="C80" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3311,10 +3311,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10640</v>
+        <v>13529</v>
       </c>
       <c r="C81" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10641</v>
+        <v>13530</v>
       </c>
       <c r="C82" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3383,10 +3383,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10642</v>
+        <v>13531</v>
       </c>
       <c r="C83" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3419,10 +3419,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10643</v>
+        <v>13532</v>
       </c>
       <c r="C84" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3455,10 +3455,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10644</v>
+        <v>13533</v>
       </c>
       <c r="C85" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3491,10 +3491,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10645</v>
+        <v>13534</v>
       </c>
       <c r="C86" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3527,10 +3527,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10646</v>
+        <v>13535</v>
       </c>
       <c r="C87" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3563,10 +3563,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10647</v>
+        <v>13536</v>
       </c>
       <c r="C88" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10648</v>
+        <v>13537</v>
       </c>
       <c r="C89" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
@@ -3631,10 +3631,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10649</v>
+        <v>13538</v>
       </c>
       <c r="C90" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3667,10 +3667,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10650</v>
+        <v>13539</v>
       </c>
       <c r="C91" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
@@ -3699,10 +3699,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10651</v>
+        <v>13540</v>
       </c>
       <c r="C92" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3735,10 +3735,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>10652</v>
+        <v>13541</v>
       </c>
       <c r="C93" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3771,10 +3771,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10653</v>
+        <v>13542</v>
       </c>
       <c r="C94" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3807,10 +3807,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10654</v>
+        <v>13543</v>
       </c>
       <c r="C95" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3843,10 +3843,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10655</v>
+        <v>13544</v>
       </c>
       <c r="C96" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3879,10 +3879,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10656</v>
+        <v>13545</v>
       </c>
       <c r="C97" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3915,10 +3915,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10657</v>
+        <v>13546</v>
       </c>
       <c r="C98" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3951,10 +3951,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>10658</v>
+        <v>13547</v>
       </c>
       <c r="C99" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3987,10 +3987,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10659</v>
+        <v>13548</v>
       </c>
       <c r="C100" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4023,10 +4023,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10660</v>
+        <v>13549</v>
       </c>
       <c r="C101" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">

--- a/public/preprocessing/@NgajiGusBaha.xlsx
+++ b/public/preprocessing/@NgajiGusBaha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,35 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13450</v>
+        <v>29055</v>
       </c>
       <c r="C2" t="n">
-        <v>175</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>gus baha amp ust masud syahat tahlil dan doa hari kh minan abdillah kajen pati gus baha di waktu</t>
-        </is>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['gus', 'baha', 'amp', 'ust', 'masud', 'syahat', 'tahlil', 'dan', 'doa', 'hari', 'kh', 'minan', 'abdillah', 'kajen', 'pati', 'gus', 'baha', 'di', 'waktu']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['gus', 'baha', 'ust', 'masud', 'syahat', 'tahlil', 'doa', 'kh', 'minan', 'abdillah', 'kajen', 'pati', 'gus', 'baha']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['gus', 'baha', 'ust', 'masud', 'syahat', 'tahlil', 'doa', 'kh', 'min', 'abdillah', 'kajen', 'pati', 'gus', 'baha']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -511,34 +517,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13451</v>
+        <v>29056</v>
       </c>
       <c r="C3" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>haul kh nursalim narukan digelar secara terbatas hanya untuk internal keluarga dan santri berhubung karena masih</t>
+          <t>gus baha di waktu ke</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['haul', 'kh', 'nursalim', 'narukan', 'digelar', 'secara', 'terbatas', 'hanya', 'untuk', 'internal', 'keluarga', 'dan', 'santri', 'berhubung', 'karena', 'masih']</t>
+          <t>['gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['haul', 'kh', 'nursalim', 'narukan', 'digelar', 'terbatas', 'internal', 'keluarga', 'santri', 'berhubung']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['haul', 'kh', 'nursalim', 'narukan', 'gelar', 'batas', 'internal', 'keluarga', 'santri', 'hubung']</t>
+          <t>['gus', 'baha']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['gus', 'baha']</t>
         </is>
       </c>
     </row>
@@ -547,34 +558,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13452</v>
+        <v>29057</v>
       </c>
       <c r="C4" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>harlah jpm ke bersama gus baha gus baha di waktu ke</t>
+          <t>hari ini senin maret kh ahmad bahauddin nursalim gus baha melaksanakan vaksinasi covid di upt pu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['harlah', 'jpm', 'ke', 'bersama', 'gus', 'baha', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
+          <t>['hari', 'ini', 'senin', 'maret', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'melaksanakan', 'vaksinasi', 'covid', 'di', 'upt', 'pu']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 11 outcomes&gt;</t>
+          <t>['hari', 'ini', 'senin', 'maret', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'melaksanakan', 'vaksinasi', 'covid', 'di', 'upt', 'punya']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['harlah', 'jpm', 'gus', 'baha', 'gus', 'baha']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['harlah', 'jpm', 'gus', 'baha', 'gus', 'baha']</t>
+          <t>['senin', 'maret', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'melaksanakan', 'vaksinasi', 'covid', 'upt']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['senin', 'maret', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'laksana', 'vaksinasi', 'covid', 'upt']</t>
         </is>
       </c>
     </row>
@@ -583,34 +599,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13453</v>
+        <v>29058</v>
       </c>
       <c r="C5" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>telah dibuka pendaftaran siswasiswi baru sekolah formal tahun ajaran yayasan pondok pesantren tahfidz</t>
+          <t>peringatan isra amp miraj doa untuk negeri pulih dari pandemi kh bahauddin nur salim gus baha rabu mar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['telah', 'dibuka', 'pendaftaran', 'siswasiswi', 'baru', 'sekolah', 'formal', 'tahun', 'ajaran', 'yayasan', 'pondok', 'pesantren', 'tahfidz']</t>
+          <t>['peringatan', 'isra', 'amp', 'miraj', 'doa', 'untuk', 'negeri', 'pulih', 'dari', 'pandemi', 'kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'rabu', 'mar']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['peringatan', 'isra', 'amp', 'miraj', 'doa', 'untuk', 'negeri', 'pulih', 'dari', 'pandemi', 'kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'rabu', 'mar']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['dibuka', 'pendaftaran', 'siswasiswi', 'sekolah', 'formal', 'ajaran', 'yayasan', 'pondok', 'pesantren', 'tahfidz']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['buka', 'daftar', 'siswasiswi', 'sekolah', 'formal', 'ajar', 'yayasan', 'pondok', 'pesantren', 'tahfidz']</t>
+          <t>['peringatan', 'isra', 'miraj', 'doa', 'negeri', 'pulih', 'pandemi', 'kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'rabu', 'mar']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['ingat', 'isra', 'miraj', 'doa', 'negeri', 'pulih', 'pandemi', 'kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'rabu', 'mar']</t>
         </is>
       </c>
     </row>
@@ -619,34 +640,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13454</v>
+        <v>29059</v>
       </c>
       <c r="C6" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">kh bahauddin nur salim gus baha haul khr asnawi ke </t>
+          <t>ngaji bareng dan peluncuran pusat studi tafsir al quran dan hadist tafaquh uii pemateri prof dr  quraish</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'haul', 'khr', 'asnawi', 'ke']</t>
+          <t>['ngaji', 'bareng', 'dan', 'peluncuran', 'pusat', 'studi', 'tafsir', 'al', 'quran', 'dan', 'hadist', 'tafaquh', 'uii', 'pemateri', 'prof', 'dr', 'quraish']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'dan', 'peluncuran', 'pusat', 'studi', 'tafsir', 'al', 'alquran', 'dan', 'hadis', 'tafaquh', 'uii', 'pemateri', 'prof', 'dari', 'quraish']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'haul', 'khr', 'asnawi']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'haul', 'khr', 'asnawi']</t>
+          <t>['mengaji', 'bareng', 'peluncuran', 'pusat', 'studi', 'tafsir', 'al', 'alquran', 'hadis', 'tafaquh', 'uii', 'pemateri', 'prof', 'quraish']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'luncur', 'pusat', 'studi', 'tafsir', 'al', 'alquran', 'hadis', 'tafaquh', 'uii', 'materi', 'prof', 'quraish']</t>
         </is>
       </c>
     </row>
@@ -655,34 +681,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13455</v>
+        <v>29060</v>
       </c>
       <c r="C7" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>haul khr asnawi ke bersama kh bahauddin nur salim  gus baha di waktu ke</t>
+          <t>live gus baha khotmil bukhori amp peringatan isro miroj majelis madinatul ilmi kudus</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['haul', 'khr', 'asnawi', 'ke', 'bersama', 'kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
+          <t>['live', 'gus', 'baha', 'khotmil', 'bukhori', 'amp', 'peringatan', 'isro', 'miroj', 'majelis', 'madinatul', 'ilmi', 'kudus']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['live', 'gus', 'baha', 'khotmil', 'bukhori', 'amp', 'peringatan', 'isro', 'miroj', 'majelis', 'madinatul', 'ilmi', 'kudus']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['haul', 'khr', 'asnawi', 'kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['haul', 'khr', 'asnawi', 'kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha']</t>
+          <t>['live', 'gus', 'baha', 'khotmil', 'bukhori', 'peringatan', 'isro', 'miroj', 'majelis', 'madinatul', 'ilmi', 'kudus']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['live', 'gus', 'baha', 'khotmil', 'bukhori', 'ingat', 'isro', 'miroj', 'majelis', 'madinatul', 'ilmi', 'kudus']</t>
         </is>
       </c>
     </row>
@@ -691,34 +722,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13456</v>
+        <v>29061</v>
       </c>
       <c r="C8" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>live streaming doa bersama gus baha hut ke rsud dr  soetrasno rembang tausiya</t>
+          <t>gus baha amp ust masud syahat tahlil dan doa hari kh minan abdillah kajen pati gus baha di waktu</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['live', 'streaming', 'doa', 'bersama', 'gus', 'baha', 'hut', 'ke', 'rsud', 'dr', 'soetrasno', 'rembang', 'tausiya']</t>
+          <t>['gus', 'baha', 'amp', 'ust', 'masud', 'syahat', 'tahlil', 'dan', 'doa', 'hari', 'kh', 'minan', 'abdillah', 'kajen', 'pati', 'gus', 'baha', 'di', 'waktu']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['gus', 'baha', 'amp', 'ustaz', 'masud', 'syahat', 'tahlil', 'dan', 'doa', 'hari', 'kh', 'minan', 'abdillah', 'kajen', 'pati', 'gus', 'baha', 'di', 'waktu']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['live', 'streaming', 'doa', 'gus', 'baha', 'hut', 'rsud', 'dr', 'soetrasno', 'rembang', 'tausiya']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['live', 'streaming', 'doa', 'gus', 'baha', 'hut', 'rsud', 'dr', 'soetrasno', 'rembang', 'tausiya']</t>
+          <t>['gus', 'baha', 'ustaz', 'masud', 'syahat', 'tahlil', 'doa', 'kh', 'minan', 'abdillah', 'kajen', 'pati', 'gus', 'baha']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['gus', 'baha', 'ustaz', 'masud', 'syahat', 'tahlil', 'doa', 'kh', 'min', 'abdillah', 'kajen', 'pati', 'gus', 'baha']</t>
         </is>
       </c>
     </row>
@@ -727,34 +763,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13457</v>
+        <v>29062</v>
       </c>
       <c r="C9" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>live kajian akhlaq bersama gus baha bank indonesia</t>
+          <t>haul kh nursalim narukan digelar secara terbatas hanya untuk internal keluarga dan santri berhubung karena masih</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['live', 'kajian', 'akhlaq', 'bersama', 'gus', 'baha', 'bank', 'indonesia']</t>
+          <t>['haul', 'kh', 'nursalim', 'narukan', 'digelar', 'secara', 'terbatas', 'hanya', 'untuk', 'internal', 'keluarga', 'dan', 'santri', 'berhubung', 'karena', 'masih']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['haul', 'kh', 'nursalim', 'narukan', 'digelar', 'secara', 'terbatas', 'hanya', 'untuk', 'internal', 'keluarga', 'dan', 'santri', 'berhubung', 'karena', 'masih']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['live', 'kajian', 'akhlaq', 'gus', 'baha', 'bank', 'indonesia']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['live', 'kaji', 'akhlaq', 'gus', 'baha', 'bank', 'indonesia']</t>
+          <t>['haul', 'kh', 'nursalim', 'narukan', 'digelar', 'terbatas', 'internal', 'keluarga', 'santri', 'berhubung']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['haul', 'kh', 'nursalim', 'narukan', 'gelar', 'batas', 'internal', 'keluarga', 'santri', 'hubung']</t>
         </is>
       </c>
     </row>
@@ -763,34 +804,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13458</v>
+        <v>29063</v>
       </c>
       <c r="C10" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>mandiri mengaji bareng gus baha gus baha di waktu ke</t>
+          <t>harlah jpm ke bersama gus baha gus baha di waktu ke</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['mandiri', 'mengaji', 'bareng', 'gus', 'baha', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
+          <t>['harlah', 'jpm', 'ke', 'bersama', 'gus', 'baha', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
+          <t>['harlah', 'jpm', 'ke', 'bersama', 'gus', 'baha', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['mandiri', 'mengaji', 'bareng', 'gus', 'baha', 'gus', 'baha']</t>
+          <t>&lt;FreqDist with 8 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['mandiri', 'aji', 'bareng', 'gus', 'baha', 'gus', 'baha']</t>
+          <t>['harlah', 'jpm', 'gus', 'baha', 'gus', 'baha']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['harlah', 'jpm', 'gus', 'baha', 'gus', 'baha']</t>
         </is>
       </c>
     </row>
@@ -799,34 +845,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13459</v>
+        <v>29064</v>
       </c>
       <c r="C11" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>muhasabah dan munajat kebangsaan bersama gus baha dies natalis ke unisvet</t>
+          <t>telah dibuka pendaftaran siswasiswi baru sekolah formal tahun ajaran yayasan pondok pesantren tahfidz</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['muhasabah', 'dan', 'munajat', 'kebangsaan', 'bersama', 'gus', 'baha', 'dies', 'natalis', 'ke', 'unisvet']</t>
+          <t>['telah', 'dibuka', 'pendaftaran', 'siswasiswi', 'baru', 'sekolah', 'formal', 'tahun', 'ajaran', 'yayasan', 'pondok', 'pesantren', 'tahfidz']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['telah', 'dibuka', 'pendaftaran', 'siswasiswi', 'baru', 'sekolah', 'formal', 'tahun', 'ajaran', 'yayasan', 'pondok', 'pesantren', 'tahfidz']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['muhasabah', 'munajat', 'kebangsaan', 'gus', 'baha', 'dies', 'natalis', 'unisvet']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['muhasabah', 'munajat', 'bangsa', 'gus', 'baha', 'dies', 'natalis', 'unisvet']</t>
+          <t>['dibuka', 'pendaftaran', 'siswasiswi', 'sekolah', 'formal', 'ajaran', 'yayasan', 'pondok', 'pesantren', 'tahfidz']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['buka', 'daftar', 'siswasiswi', 'sekolah', 'formal', 'ajar', 'yayasan', 'pondok', 'pesantren', 'tahfidz']</t>
         </is>
       </c>
     </row>
@@ -835,34 +886,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13460</v>
+        <v>29065</v>
       </c>
       <c r="C12" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t xml:space="preserve">kh bahauddin nur salim gus baha haul khr asnawi ke </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'haul', 'khr', 'asnawi', 'ke']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'haul', 'khr', 'asnawi', 'ke']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'haul', 'khr', 'asnawi']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'haul', 'khr', 'asnawi']</t>
         </is>
       </c>
     </row>
@@ -871,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13461</v>
+        <v>29066</v>
       </c>
       <c r="C13" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ngaji bareng gus baha jumat januari selesai live streaming di channel youtube official lpia</t>
+          <t>haul khr asnawi ke bersama kh bahauddin nur salim  gus baha di waktu ke</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'jumat', 'januari', 'selesai', 'live', 'streaming', 'di', 'channel', 'youtube', 'official', 'lpia']</t>
+          <t>['haul', 'khr', 'asnawi', 'ke', 'bersama', 'kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['haul', 'khr', 'asnawi', 'ke', 'bersama', 'kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'jumat', 'januari', 'selesai', 'live', 'streaming', 'channel', 'youtube', 'official', 'lpia']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'jumat', 'januari', 'selesai', 'live', 'streaming', 'channel', 'youtube', 'official', 'lpia']</t>
+          <t>['haul', 'khr', 'asnawi', 'kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['haul', 'khr', 'asnawi', 'kh', 'bahauddin', 'nur', 'salim', 'gus', 'baha']</t>
         </is>
       </c>
     </row>
@@ -907,34 +968,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13462</v>
+        <v>29067</v>
       </c>
       <c r="C14" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>majelis tahlil virtual almaghfurlah khr  najib abdul qodir munawwir gus baha di waktu ke</t>
+          <t>live streaming doa bersama gus baha hut ke rsud dr  soetrasno rembang tausiya</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['majelis', 'tahlil', 'virtual', 'almaghfurlah', 'khr', 'najib', 'abdul', 'qodir', 'munawwir', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
+          <t>['live', 'streaming', 'doa', 'bersama', 'gus', 'baha', 'hut', 'ke', 'rsud', 'dr', 'soetrasno', 'rembang', 'tausiya']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['live', 'streaming', 'doa', 'bersama', 'gus', 'baha', 'hari, ulang, tahun', 'ke', 'rsud', 'dari', 'soetrasno', 'rembang', 'tausiya']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['majelis', 'tahlil', 'virtual', 'almaghfurlah', 'khr', 'najib', 'abdul', 'qodir', 'munawwir', 'gus', 'baha']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['majelis', 'tahlil', 'virtual', 'almaghfurlah', 'khr', 'najib', 'abdul', 'qodir', 'munawwir', 'gus', 'baha']</t>
+          <t>['live', 'streaming', 'doa', 'gus', 'baha', 'hari, ulang, tahun', 'rsud', 'soetrasno', 'rembang', 'tausiya']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['live', 'streaming', 'doa', 'gus', 'baha', 'hari ulang tahun', 'rsud', 'soetrasno', 'rembang', 'tausiya']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1009,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13463</v>
+        <v>29068</v>
       </c>
       <c r="C15" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>live ngaos sareng guse ngaji online grab jawa tengah dan diy januari nga</t>
+          <t>live kajian akhlaq bersama gus baha bank indonesia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['live', 'ngaos', 'sareng', 'guse', 'ngaji', 'online', 'grab', 'jawa', 'tengah', 'dan', 'diy', 'januari', 'nga']</t>
+          <t>['live', 'kajian', 'akhlaq', 'bersama', 'gus', 'baha', 'bank', 'indonesia']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['live', 'kajian', 'akhlaq', 'bersama', 'gus', 'baha', 'bank', 'indonesia']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['live', 'ngaos', 'sareng', 'guse', 'ngaji', 'online', 'grab', 'jawa', 'diy', 'januari', 'nga']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['live', 'ngaos', 'sareng', 'guse', 'ngaji', 'online', 'grab', 'jawa', 'diy', 'januari', 'nga']</t>
+          <t>['live', 'kajian', 'akhlaq', 'gus', 'baha', 'bank', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['live', 'kaji', 'akhlaq', 'gus', 'baha', 'bank', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13464</v>
+        <v>29069</v>
       </c>
       <c r="C16" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngaji bareng gus baha januari wib   ahmad bahauddin nursalim gus baha  taj yasin </t>
+          <t>mandiri mengaji bareng gus baha gus baha di waktu ke</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'januari', 'wib', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'taj', 'yasin']</t>
+          <t>['mandiri', 'mengaji', 'bareng', 'gus', 'baha', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>['mandiri', 'mengaji', 'bareng', 'gus', 'baha', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'januari', 'wib', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'taj', 'yasin']</t>
+          <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'januari', 'wib', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'taj', 'yasin']</t>
+          <t>['mandiri', 'mengaji', 'bareng', 'gus', 'baha', 'gus', 'baha']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['mandiri', 'aji', 'bareng', 'gus', 'baha', 'gus', 'baha']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13465</v>
+        <v>29070</v>
       </c>
       <c r="C17" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>jualbeli gojlokan gus baha dan moderator mahad aly situbondo dalam rangkaian acar</t>
+          <t>muhasabah dan munajat kebangsaan bersama gus baha dies natalis ke unisvet</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['jualbeli', 'gojlokan', 'gus', 'baha', 'dan', 'moderator', 'mahad', 'aly', 'situbondo', 'dalam', 'rangkaian', 'acar']</t>
+          <t>['muhasabah', 'dan', 'munajat', 'kebangsaan', 'bersama', 'gus', 'baha', 'dies', 'natalis', 'ke', 'unisvet']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['muhasabah', 'dan', 'munajat', 'kebangsaan', 'bersama', 'gus', 'baha', 'dies', 'natalis', 'ke', 'unisvet']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['jualbeli', 'gojlokan', 'gus', 'baha', 'moderator', 'mahad', 'aly', 'situbondo', 'rangkaian', 'acar']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['jualbeli', 'gojlok', 'gus', 'baha', 'moderator', 'mahad', 'aly', 'situbondo', 'rangkai', 'acar']</t>
+          <t>['muhasabah', 'munajat', 'kebangsaan', 'gus', 'baha', 'dies', 'natalis', 'unisvet']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['muhasabah', 'munajat', 'bangsa', 'gus', 'baha', 'dies', 'natalis', 'unisvet']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13466</v>
+        <v>29071</v>
       </c>
       <c r="C18" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ngaji bareng gus baha kh ahmad bahauddin nursalim mahad aly salafiyah syafiiyah sukorejositubondo</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'mahad', 'aly', 'salafiyah', 'syafiiyah', 'sukorejositubondo']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'mahad', 'aly', 'salafiyah', 'syafiiyah', 'sukorejositubondo']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'mahad', 'aly', 'salafiyah', 'syafiiyah', 'sukorejositubondo']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13467</v>
+        <v>29072</v>
       </c>
       <c r="C19" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>live haul majemuk masyayikh amp keluarga besar ps  tv</t>
+          <t>ngaji bareng gus baha jumat januari selesai live streaming di channel youtube official lpia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['live', 'haul', 'majemuk', 'masyayikh', 'amp', 'keluarga', 'besar', 'ps', 'tv']</t>
+          <t>['ngaji', 'bareng', 'gus', 'baha', 'jumat', 'januari', 'selesai', 'live', 'streaming', 'di', 'channel', 'youtube', 'official', 'lpia']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'jumat', 'januari', 'selesai', 'live', 'streaming', 'di', 'channel', 'youtube', 'official', 'lpia']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['live', 'haul', 'majemuk', 'masyayikh', 'keluarga', 'ps', 'tv']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['live', 'haul', 'majemuk', 'masyayikh', 'keluarga', 'ps', 'tv']</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'jumat', 'januari', 'selesai', 'live', 'streaming', 'channel', 'youtube', 'official', 'lpia']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'gus', 'baha', 'jumat', 'januari', 'selesai', 'live', 'streaming', 'channel', 'youtube', 'official', 'lpia']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13468</v>
+        <v>29073</v>
       </c>
       <c r="C20" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt alhamdulillahjumat sore ini mendapat limpahan berkah doa dari masyayikh pon pes al anwar sarang tinggal ngalap berka</t>
+          <t>majelis tahlil virtual almaghfurlah khr  najib abdul qodir munawwir gus baha di waktu ke</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'alhamdulillahjumat', 'sore', 'ini', 'mendapat', 'limpahan', 'berkah', 'doa', 'dari', 'masyayikh', 'pon', 'pes', 'al', 'anwar', 'sarang', 'tinggal', 'ngalap', 'berka']</t>
+          <t>['majelis', 'tahlil', 'virtual', 'almaghfurlah', 'khr', 'najib', 'abdul', 'qodir', 'munawwir', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['majelis', 'tahlil', 'virtual', 'almaghfurlah', 'khr', 'najib', 'abdul', 'qodir', 'munawwir', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['alhamdulillahjumat', 'sore', 'limpahan', 'berkah', 'doa', 'masyayikh', 'pon', 'pes', 'al', 'anwar', 'sarang', 'tinggal', 'ngalap', 'berka']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['alhamdulillahjumat', 'sore', 'limpah', 'berkah', 'doa', 'masyayikh', 'pon', 'pes', 'al', 'anwar', 'sarang', 'tinggal', 'ngalap', 'berka']</t>
+          <t>['majelis', 'tahlil', 'virtual', 'almaghfurlah', 'khr', 'najib', 'abdul', 'qodir', 'munawwir', 'gus', 'baha']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['majelis', 'tahlil', 'virtual', 'almaghfurlah', 'khr', 'najib', 'abdul', 'qodir', 'munawwir', 'gus', 'baha']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13469</v>
+        <v>29074</v>
       </c>
       <c r="C21" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>majelis virtual dalam rangka haul almaghfurlah kh ali maksum krapyak yogyakarta desem</t>
+          <t>live ngaos sareng guse ngaji online grab jawa tengah dan diy januari nga</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['majelis', 'virtual', 'dalam', 'rangka', 'haul', 'almaghfurlah', 'kh', 'ali', 'maksum', 'krapyak', 'yogyakarta', 'desem']</t>
+          <t>['live', 'ngaos', 'sareng', 'guse', 'ngaji', 'online', 'grab', 'jawa', 'tengah', 'dan', 'diy', 'januari', 'nga']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['live', 'ngaos', 'sareng', 'guse', 'mengaji', 'online', 'grab', 'jawa', 'tengah', 'dan', 'diy', 'januari', 'tidak']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['majelis', 'virtual', 'rangka', 'haul', 'almaghfurlah', 'kh', 'ali', 'maksum', 'krapyak', 'yogyakarta', 'desem']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['majelis', 'virtual', 'rangka', 'haul', 'almaghfurlah', 'kh', 'ali', 'maksum', 'krapyak', 'yogyakarta', 'desem']</t>
+          <t>['live', 'ngaos', 'sareng', 'guse', 'mengaji', 'online', 'grab', 'jawa', 'diy', 'januari']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['live', 'ngaos', 'sareng', 'guse', 'aji', 'online', 'grab', 'jawa', 'diy', 'januari']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13470</v>
+        <v>29075</v>
       </c>
       <c r="C22" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>majelis haul virtual ke almaghfurlah kh ali maksum tausiyah kh agus maftuh abigibriel kh abdul ghofur maem</t>
+          <t xml:space="preserve">ngaji bareng gus baha januari wib   ahmad bahauddin nursalim gus baha  taj yasin </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['majelis', 'haul', 'virtual', 'ke', 'almaghfurlah', 'kh', 'ali', 'maksum', 'tausiyah', 'kh', 'agus', 'maftuh', 'abigibriel', 'kh', 'abdul', 'ghofur', 'maem']</t>
+          <t>['ngaji', 'bareng', 'gus', 'baha', 'januari', 'wib', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'taj', 'yasin']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'januari', 'waktu, indonesia, bagian, barat', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'tai', 'yasin']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['majelis', 'haul', 'virtual', 'almaghfurlah', 'kh', 'ali', 'maksum', 'tausiyah', 'kh', 'agus', 'maftuh', 'abigibriel', 'kh', 'abdul', 'ghofur', 'maem']</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['majelis', 'haul', 'virtual', 'almaghfurlah', 'kh', 'ali', 'maksum', 'tausiyah', 'kh', 'agus', 'maftuh', 'abigibriel', 'kh', 'abdul', 'ghofur', 'maem']</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'januari', 'waktu, indonesia, bagian, barat', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'tai', 'yasin']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'gus', 'baha', 'januari', 'waktu indonesia bagi barat', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'tai', 'yasin']</t>
         </is>
       </c>
     </row>
@@ -1231,30 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13471</v>
+        <v>29076</v>
       </c>
       <c r="C23" t="n">
-        <v>175</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>341</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>jualbeli gojlokan gus baha dan moderator mahad aly situbondo dalam rangkaian acar</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['jualbeli', 'gojlokan', 'gus', 'baha', 'dan', 'moderator', 'mahad', 'aly', 'situbondo', 'dalam', 'rangkaian', 'acar']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['jualbeli', 'gojlokan', 'gus', 'baha', 'dan', 'moderator', 'mahad', 'aly', 'situbondo', 'dalam', 'rangkaian', 'acar']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['jualbeli', 'gojlokan', 'gus', 'baha', 'moderator', 'mahad', 'aly', 'situbondo', 'rangkaian', 'acar']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['jualbeli', 'gojlok', 'gus', 'baha', 'moderator', 'mahad', 'aly', 'situbondo', 'rangkai', 'acar']</t>
         </is>
       </c>
     </row>
@@ -1263,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13472</v>
+        <v>29077</v>
       </c>
       <c r="C24" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>dzikir dan tabligh akbar nasional virtual peringatan maulid nabi muhammad saw meneladani akhlak rasulullah da</t>
+          <t>ngaji bareng gus baha kh ahmad bahauddin nursalim mahad aly salafiyah syafiiyah sukorejositubondo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['dzikir', 'dan', 'tabligh', 'akbar', 'nasional', 'virtual', 'peringatan', 'maulid', 'nabi', 'muhammad', 'saw', 'meneladani', 'akhlak', 'rasulullah', 'da']</t>
+          <t>['ngaji', 'bareng', 'gus', 'baha', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'mahad', 'aly', 'salafiyah', 'syafiiyah', 'sukorejositubondo']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'mahad', 'aly', 'salafiyah', 'syafiiyah', 'sukorejositubondo']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['dzikir', 'tabligh', 'akbar', 'nasional', 'virtual', 'peringatan', 'maulid', 'nabi', 'muhammad', 'saw', 'meneladani', 'akhlak', 'rasulullah', 'da']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['dzikir', 'tabligh', 'akbar', 'nasional', 'virtual', 'ingat', 'maulid', 'nabi', 'muhammad', 'saw', 'teladan', 'akhlak', 'rasulullah', 'da']</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'mahad', 'aly', 'salafiyah', 'syafiiyah', 'sukorejositubondo']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'gus', 'baha', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'mahad', 'aly', 'salafiyah', 'syafiiyah', 'sukorejositubondo']</t>
         </is>
       </c>
     </row>
@@ -1299,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13473</v>
+        <v>29078</v>
       </c>
       <c r="C25" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>gagasan pahlawan nasional hadratussyaikh kh maimoen zubair</t>
+          <t>live haul majemuk masyayikh amp keluarga besar ps  tv</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['gagasan', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair']</t>
+          <t>['live', 'haul', 'majemuk', 'masyayikh', 'amp', 'keluarga', 'besar', 'ps', 'tv']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['live', 'haul', 'majemuk', 'masyayikh', 'amp', 'keluarga', 'besar', 'play, station', 'televisi']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['gagasan', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['gagas', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair']</t>
+          <t>['live', 'haul', 'majemuk', 'masyayikh', 'keluarga', 'play, station', 'televisi']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['live', 'haul', 'majemuk', 'masyayikh', 'keluarga', 'play station', 'televisi']</t>
         </is>
       </c>
     </row>
@@ -1335,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13474</v>
+        <v>29079</v>
       </c>
       <c r="C26" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>webinar internasional gagasan pahlawan nasional hadratussyaikh kh maimoen zubair sang kyai bangsa jangkar pol</t>
+          <t>rt alhamdulillahjumat sore ini mendapat limpahan berkah doa dari masyayikh pon pes al anwar sarang tinggal ngalap berka</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['webinar', 'internasional', 'gagasan', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair', 'sang', 'kyai', 'bangsa', 'jangkar', 'pol']</t>
+          <t>['rt', 'alhamdulillahjumat', 'sore', 'ini', 'mendapat', 'limpahan', 'berkah', 'doa', 'dari', 'masyayikh', 'pon', 'pes', 'al', 'anwar', 'sarang', 'tinggal', 'ngalap', 'berka']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'alhamdulillahjumat', 'sore', 'ini', 'mendapat', 'limpahan', 'berkah', 'doa', 'dari', 'masyayikh', 'pon', 'pes', 'al', 'anwar', 'sarang', 'tinggal', 'ngalap', 'berka']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['webinar', 'internasional', 'gagasan', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair', 'sang', 'kyai', 'bangsa', 'jangkar', 'pol']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['webinar', 'internasional', 'gagas', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair', 'sang', 'kyai', 'bangsa', 'jangkar', 'pol']</t>
+          <t>['alhamdulillahjumat', 'sore', 'limpahan', 'berkah', 'doa', 'masyayikh', 'pon', 'pes', 'al', 'anwar', 'sarang', 'tinggal', 'ngalap', 'berka']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['alhamdulillahjumat', 'sore', 'limpah', 'berkah', 'doa', 'masyayikh', 'pon', 'pes', 'al', 'anwar', 'sarang', 'tinggal', 'ngalap', 'berka']</t>
         </is>
       </c>
     </row>
@@ -1371,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13475</v>
+        <v>29080</v>
       </c>
       <c r="C27" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngaji bareng gus baha dalam rangka milad ke notaris musilim indonesia pada tanggal </t>
+          <t>majelis virtual dalam rangka haul almaghfurlah kh ali maksum krapyak yogyakarta desem</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'dalam', 'rangka', 'milad', 'ke', 'notaris', 'musilim', 'indonesia', 'pada', 'tanggal']</t>
+          <t>['majelis', 'virtual', 'dalam', 'rangka', 'haul', 'almaghfurlah', 'kh', 'ali', 'maksum', 'krapyak', 'yogyakarta', 'desem']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['majelis', 'virtual', 'dalam', 'rangka', 'haul', 'almaghfurlah', 'kh', 'ali', 'maksum', 'krapyak', 'yogyakarta', 'desem']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'rangka', 'milad', 'notaris', 'musilim', 'indonesia', 'tanggal']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'rangka', 'milad', 'notaris', 'musilim', 'indonesia', 'tanggal']</t>
+          <t>['majelis', 'virtual', 'rangka', 'haul', 'almaghfurlah', 'kh', 'ali', 'maksum', 'krapyak', 'yogyakarta', 'desem']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['majelis', 'virtual', 'rangka', 'haul', 'almaghfurlah', 'kh', 'ali', 'maksum', 'krapyak', 'yogyakarta', 'desem']</t>
         </is>
       </c>
     </row>
@@ -1407,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13476</v>
+        <v>29081</v>
       </c>
       <c r="C28" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>live ngaji bareng gus baha dengan notaris muslim indonesia pada tanggal desember di ponpes lpia narukan</t>
+          <t>majelis haul virtual ke almaghfurlah kh ali maksum tausiyah kh agus maftuh abigibriel kh abdul ghofur maem</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'dengan', 'notaris', 'muslim', 'indonesia', 'pada', 'tanggal', 'desember', 'di', 'ponpes', 'lpia', 'narukan']</t>
+          <t>['majelis', 'haul', 'virtual', 'ke', 'almaghfurlah', 'kh', 'ali', 'maksum', 'tausiyah', 'kh', 'agus', 'maftuh', 'abigibriel', 'kh', 'abdul', 'ghofur', 'maem']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['majelis', 'haul', 'virtual', 'ke', 'almaghfurlah', 'kh', 'ali', 'maksum', 'tausiah', 'kh', 'agus', 'maftuh', 'abigibriel', 'kh', 'abdul', 'ghofur', 'maem']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'notaris', 'muslim', 'indonesia', 'tanggal', 'desember', 'ponpes', 'lpia', 'narukan']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'notaris', 'muslim', 'indonesia', 'tanggal', 'desember', 'ponpes', 'lpia', 'narukan']</t>
+          <t>['majelis', 'haul', 'virtual', 'almaghfurlah', 'kh', 'ali', 'maksum', 'tausiah', 'kh', 'agus', 'maftuh', 'abigibriel', 'kh', 'abdul', 'ghofur', 'maem']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['majelis', 'haul', 'virtual', 'almaghfurlah', 'kh', 'ali', 'maksum', 'tausiah', 'kh', 'agus', 'maftuh', 'abigibriel', 'kh', 'abdul', 'ghofur', 'maem']</t>
         </is>
       </c>
     </row>
@@ -1443,34 +1583,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13477</v>
+        <v>29082</v>
       </c>
       <c r="C29" t="n">
-        <v>175</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>kepada semua muhibbin dan jamaah ngaji gus baha tanpa kecuali dimohon dengan sangat untuk mengurungkanmembatalkan</t>
-        </is>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['kepada', 'semua', 'muhibbin', 'dan', 'jamaah', 'ngaji', 'gus', 'baha', 'tanpa', 'kecuali', 'dimohon', 'dengan', 'sangat', 'untuk', 'mengurungkanmembatalkan']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['muhibbin', 'jamaah', 'ngaji', 'gus', 'baha', 'kecuali', 'dimohon', 'mengurungkanmembatalkan']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['muhibbin', 'jamaah', 'ngaji', 'gus', 'baha', 'kecuali', 'mohon', 'mengurungkanmembatalkan']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1479,34 +1620,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13478</v>
+        <v>29083</v>
       </c>
       <c r="C30" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt setiap masjid ada warung kopi</t>
+          <t>dzikir dan tabligh akbar nasional virtual peringatan maulid nabi muhammad saw meneladani akhlak rasulullah da</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'setiap', 'masjid', 'ada', 'warung', 'kopi']</t>
+          <t>['dzikir', 'dan', 'tabligh', 'akbar', 'nasional', 'virtual', 'peringatan', 'maulid', 'nabi', 'muhammad', 'saw', 'meneladani', 'akhlak', 'rasulullah', 'da']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['zikir', 'dan', 'tablig', 'akbar', 'nasional', 'virtual', 'peringatan', 'maulid', 'nabi', 'muhammad', 'saw', 'meneladani', 'akhlak', 'rasulullah', 'dan']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['masjid', 'warung', 'kopi']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['masjid', 'warung', 'kopi']</t>
+          <t>['zikir', 'tablig', 'akbar', 'nasional', 'virtual', 'peringatan', 'maulid', 'nabi', 'muhammad', 'saw', 'meneladani', 'akhlak', 'rasulullah']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['zikir', 'tablig', 'akbar', 'nasional', 'virtual', 'ingat', 'maulid', 'nabi', 'muhammad', 'saw', 'teladan', 'akhlak', 'rasulullah']</t>
         </is>
       </c>
     </row>
@@ -1515,34 +1661,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13479</v>
+        <v>29084</v>
       </c>
       <c r="C31" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>nmi ngaji bareng gus baha rabu desember jam live dari ponpes tahfidzul quran lpia narukan kr</t>
+          <t>gagasan pahlawan nasional hadratussyaikh kh maimoen zubair</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['nmi', 'ngaji', 'bareng', 'gus', 'baha', 'rabu', 'desember', 'jam', 'live', 'dari', 'ponpes', 'tahfidzul', 'quran', 'lpia', 'narukan', 'kr']</t>
+          <t>['gagasan', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['gagasan', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['nmi', 'ngaji', 'bareng', 'gus', 'baha', 'rabu', 'desember', 'jam', 'live', 'ponpes', 'tahfidzul', 'quran', 'lpia', 'narukan', 'kr']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['nmi', 'ngaji', 'bareng', 'gus', 'baha', 'rabu', 'desember', 'jam', 'live', 'ponpes', 'tahfidzul', 'quran', 'lpia', 'narukan', 'kr']</t>
+          <t>['gagasan', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['gagas', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair']</t>
         </is>
       </c>
     </row>
@@ -1551,34 +1702,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13480</v>
+        <v>29085</v>
       </c>
       <c r="C32" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ngaji bareng gus baha dalam rangka maulid nabi muhammad saw dan haul kh hisyam hayat</t>
+          <t>webinar internasional gagasan pahlawan nasional hadratussyaikh kh maimoen zubair sang kyai bangsa jangkar pol</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'dalam', 'rangka', 'maulid', 'nabi', 'muhammad', 'saw', 'dan', 'haul', 'kh', 'hisyam', 'hayat']</t>
+          <t>['webinar', 'internasional', 'gagasan', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair', 'sang', 'kyai', 'bangsa', 'jangkar', 'pol']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['webinar', 'internasional', 'gagasan', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair', 'sang', 'kiai', 'bangsa', 'jangkar', 'pol']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'rangka', 'maulid', 'nabi', 'muhammad', 'saw', 'haul', 'kh', 'hisyam', 'hayat']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'rangka', 'maulid', 'nabi', 'muhammad', 'saw', 'haul', 'kh', 'hisyam', 'hayat']</t>
+          <t>['webinar', 'internasional', 'gagasan', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair', 'sang', 'kiai', 'bangsa', 'jangkar', 'pol']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['webinar', 'internasional', 'gagas', 'pahlawan', 'nasional', 'hadratussyaikh', 'kh', 'maimoen', 'zubair', 'sang', 'kiai', 'bangsa', 'jangkar', 'pol']</t>
         </is>
       </c>
     </row>
@@ -1587,34 +1743,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13481</v>
+        <v>29086</v>
       </c>
       <c r="C33" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngaji bareng gus baha   ahmad bahauddin nursalim kitab nashoihul ibad dalam rangka dies natalis unesa </t>
+          <t xml:space="preserve">ngaji bareng gus baha dalam rangka milad ke notaris musilim indonesia pada tanggal </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'ahmad', 'bahauddin', 'nursalim', 'kitab', 'nashoihul', 'ibad', 'dalam', 'rangka', 'dies', 'natalis', 'unesa']</t>
+          <t>['ngaji', 'bareng', 'gus', 'baha', 'dalam', 'rangka', 'milad', 'ke', 'notaris', 'musilim', 'indonesia', 'pada', 'tanggal']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'dalam', 'rangka', 'milad', 'ke', 'notaris', 'musilim', 'indonesia', 'pada', 'tanggal']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'ahmad', 'bahauddin', 'nursalim', 'kitab', 'nashoihul', 'ibad', 'rangka', 'dies', 'natalis', 'unesa']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'ahmad', 'bahauddin', 'nursalim', 'kitab', 'nashoihul', 'ibad', 'rangka', 'dies', 'natalis', 'unesa']</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'rangka', 'milad', 'notaris', 'musilim', 'indonesia', 'tanggal']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'gus', 'baha', 'rangka', 'milad', 'notaris', 'musilim', 'indonesia', 'tanggal']</t>
         </is>
       </c>
     </row>
@@ -1623,34 +1784,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13482</v>
+        <v>29087</v>
       </c>
       <c r="C34" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>live streaming haul kh abdullah umar november di pondok pesantren alfakhriyyah lasem rembang</t>
+          <t>live ngaji bareng gus baha dengan notaris muslim indonesia pada tanggal desember di ponpes lpia narukan</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['live', 'streaming', 'haul', 'kh', 'abdullah', 'umar', 'november', 'di', 'pondok', 'pesantren', 'alfakhriyyah', 'lasem', 'rembang']</t>
+          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'dengan', 'notaris', 'muslim', 'indonesia', 'pada', 'tanggal', 'desember', 'di', 'ponpes', 'lpia', 'narukan']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['live', 'mengaji', 'bareng', 'gus', 'baha', 'dengan', 'notaris', 'muslim', 'indonesia', 'pada', 'tanggal', 'desember', 'di', 'pondok, pesantren', 'lpia', 'narukan']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['live', 'streaming', 'haul', 'kh', 'abdullah', 'umar', 'november', 'pondok', 'pesantren', 'alfakhriyyah', 'lasem', 'rembang']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['live', 'streaming', 'haul', 'kh', 'abdullah', 'umar', 'november', 'pondok', 'pesantren', 'alfakhriyyah', 'lasem', 'rembang']</t>
+          <t>['live', 'mengaji', 'bareng', 'gus', 'baha', 'notaris', 'muslim', 'indonesia', 'tanggal', 'desember', 'pondok, pesantren', 'lpia', 'narukan']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['live', 'aji', 'bareng', 'gus', 'baha', 'notaris', 'muslim', 'indonesia', 'tanggal', 'desember', 'pondok pesantren', 'lpia', 'narukan']</t>
         </is>
       </c>
     </row>
@@ -1659,34 +1825,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13483</v>
+        <v>29088</v>
       </c>
       <c r="C35" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>penutupan mahrest bedah kitab adabul alim wal mutaallim bersama kh bahauddin nur salim</t>
+          <t>kepada semua muhibbin dan jamaah ngaji gus baha tanpa kecuali dimohon dengan sangat untuk mengurungkanmembatalkan</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['penutupan', 'mahrest', 'bedah', 'kitab', 'adabul', 'alim', 'wal', 'mutaallim', 'bersama', 'kh', 'bahauddin', 'nur', 'salim']</t>
+          <t>['kepada', 'semua', 'muhibbin', 'dan', 'jamaah', 'ngaji', 'gus', 'baha', 'tanpa', 'kecuali', 'dimohon', 'dengan', 'sangat', 'untuk', 'mengurungkanmembatalkan']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['kepada', 'semua', 'muhibbin', 'dan', 'jamaah', 'mengaji', 'gus', 'baha', 'tanpa', 'kecuali', 'dimohon', 'dengan', 'sangat', 'untuk', 'mengurungkanmembatalkan']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['penutupan', 'mahrest', 'bedah', 'kitab', 'adabul', 'alim', 'wal', 'mutaallim', 'kh', 'bahauddin', 'nur', 'salim']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['tutup', 'mahrest', 'bedah', 'kitab', 'adabul', 'alim', 'wal', 'mutaallim', 'kh', 'bahauddin', 'nur', 'salim']</t>
+          <t>['muhibbin', 'jamaah', 'mengaji', 'gus', 'baha', 'kecuali', 'dimohon', 'mengurungkanmembatalkan']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['muhibbin', 'jamaah', 'aji', 'gus', 'baha', 'kecuali', 'mohon', 'mengurungkanmembatalkan']</t>
         </is>
       </c>
     </row>
@@ -1695,34 +1866,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13484</v>
+        <v>29089</v>
       </c>
       <c r="C36" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ngaji bareng alumni langitan november</t>
+          <t>rt setiap masjid ada warung kopi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'alumni', 'langitan', 'november']</t>
+          <t>['rt', 'setiap', 'masjid', 'ada', 'warung', 'kopi']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'setiap', 'masjid', 'ada', 'warung', 'kopi']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'alumni', 'langitan', 'november']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'alumni', 'langit', 'november']</t>
+          <t>['masjid', 'warung', 'kopi']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['masjid', 'warung', 'kopi']</t>
         </is>
       </c>
     </row>
@@ -1731,34 +1907,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13485</v>
+        <v>29090</v>
       </c>
       <c r="C37" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>bedah kitab adabul alim wal mutaallim bersama gus baha minggu november jam wib livestreami</t>
+          <t>nmi ngaji bareng gus baha rabu desember jam live dari ponpes tahfidzul quran lpia narukan kr</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['bedah', 'kitab', 'adabul', 'alim', 'wal', 'mutaallim', 'bersama', 'gus', 'baha', 'minggu', 'november', 'jam', 'wib', 'livestreami']</t>
+          <t>['nmi', 'ngaji', 'bareng', 'gus', 'baha', 'rabu', 'desember', 'jam', 'live', 'dari', 'ponpes', 'tahfidzul', 'quran', 'lpia', 'narukan', 'kr']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['nmi', 'mengaji', 'bareng', 'gus', 'baha', 'rabu', 'desember', 'jam', 'live', 'dari', 'pondok, pesantren', 'tahfidzul', 'alquran', 'lpia', 'narukan', 'kr']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['bedah', 'kitab', 'adabul', 'alim', 'wal', 'mutaallim', 'gus', 'baha', 'minggu', 'november', 'jam', 'wib', 'livestreami']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['bedah', 'kitab', 'adabul', 'alim', 'wal', 'mutaallim', 'gus', 'baha', 'minggu', 'november', 'jam', 'wib', 'livestreami']</t>
+          <t>['nmi', 'mengaji', 'bareng', 'gus', 'baha', 'rabu', 'desember', 'jam', 'live', 'pondok, pesantren', 'tahfidzul', 'alquran', 'lpia', 'narukan', 'kr']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['nmi', 'aji', 'bareng', 'gus', 'baha', 'rabu', 'desember', 'jam', 'live', 'pondok pesantren', 'tahfidzul', 'alquran', 'lpia', 'narukan', 'kr']</t>
         </is>
       </c>
     </row>
@@ -1767,30 +1948,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13486</v>
+        <v>29091</v>
       </c>
       <c r="C38" t="n">
-        <v>175</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>341</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ngaji bareng gus baha dalam rangka maulid nabi muhammad saw dan haul kh hisyam hayat</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ngaji', 'bareng', 'gus', 'baha', 'dalam', 'rangka', 'maulid', 'nabi', 'muhammad', 'saw', 'dan', 'haul', 'kh', 'hisyam', 'hayat']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'dalam', 'rangka', 'maulid', 'nabi', 'muhammad', 'saw', 'dan', 'haul', 'kh', 'hisyam', 'hayat']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'rangka', 'maulid', 'nabi', 'muhammad', 'saw', 'haul', 'kh', 'hisyam', 'hayat']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'gus', 'baha', 'rangka', 'maulid', 'nabi', 'muhammad', 'saw', 'haul', 'kh', 'hisyam', 'hayat']</t>
         </is>
       </c>
     </row>
@@ -1799,34 +1989,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13487</v>
+        <v>29092</v>
       </c>
       <c r="C39" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>gus baha bicara tentang madrasah</t>
+          <t xml:space="preserve">ngaji bareng gus baha   ahmad bahauddin nursalim kitab nashoihul ibad dalam rangka dies natalis unesa </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['gus', 'baha', 'bicara', 'tentang', 'madrasah']</t>
+          <t>['ngaji', 'bareng', 'gus', 'baha', 'ahmad', 'bahauddin', 'nursalim', 'kitab', 'nashoihul', 'ibad', 'dalam', 'rangka', 'dies', 'natalis', 'unesa']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'ahmad', 'bahauddin', 'nursalim', 'kitab', 'nashoihul', 'ibad', 'dalam', 'rangka', 'dies', 'natalis', 'unesa']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['gus', 'baha', 'bicara', 'madrasah']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['gus', 'baha', 'bicara', 'madrasah']</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'ahmad', 'bahauddin', 'nursalim', 'kitab', 'nashoihul', 'ibad', 'rangka', 'dies', 'natalis', 'unesa']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'gus', 'baha', 'ahmad', 'bahauddin', 'nursalim', 'kitab', 'nashoihul', 'ibad', 'rangka', 'dies', 'natalis', 'unesa']</t>
         </is>
       </c>
     </row>
@@ -1835,34 +2030,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13488</v>
+        <v>29093</v>
       </c>
       <c r="C40" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">peringatan maulidurrosul nabi muhammad saw  pemerintah prov jawa tengah bersama gus taj yasin maimoen </t>
+          <t>live streaming haul kh abdullah umar november di pondok pesantren alfakhriyyah lasem rembang</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['peringatan', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'pemerintah', 'prov', 'jawa', 'tengah', 'bersama', 'gus', 'taj', 'yasin', 'maimoen']</t>
+          <t>['live', 'streaming', 'haul', 'kh', 'abdullah', 'umar', 'november', 'di', 'pondok', 'pesantren', 'alfakhriyyah', 'lasem', 'rembang']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['live', 'streaming', 'haul', 'kh', 'abdullah', 'umar', 'november', 'di', 'pondok', 'pesantren', 'alfakhriyyah', 'lasem', 'rembang']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['peringatan', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'pemerintah', 'prov', 'jawa', 'gus', 'taj', 'yasin', 'maimoen']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['ingat', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'perintah', 'prov', 'jawa', 'gus', 'taj', 'yasin', 'maimoen']</t>
+          <t>['live', 'streaming', 'haul', 'kh', 'abdullah', 'umar', 'november', 'pondok', 'pesantren', 'alfakhriyyah', 'lasem', 'rembang']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['live', 'streaming', 'haul', 'kh', 'abdullah', 'umar', 'november', 'pondok', 'pesantren', 'alfakhriyyah', 'lasem', 'rembang']</t>
         </is>
       </c>
     </row>
@@ -1871,34 +2071,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13489</v>
+        <v>29094</v>
       </c>
       <c r="C41" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>peringatan maulidurrosul nabi muhammad saw hijriah bersama gus taj yasin maimoen habib hasan aljuhri gus</t>
+          <t>penutupan mahrest bedah kitab adabul alim wal mutaallim bersama kh bahauddin nur salim</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['peringatan', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'hijriah', 'bersama', 'gus', 'taj', 'yasin', 'maimoen', 'habib', 'hasan', 'aljuhri', 'gus']</t>
+          <t>['penutupan', 'mahrest', 'bedah', 'kitab', 'adabul', 'alim', 'wal', 'mutaallim', 'bersama', 'kh', 'bahauddin', 'nur', 'salim']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['penutupan', 'mahrest', 'bedah', 'kitab', 'adabul', 'alim', 'wah', 'mutaallim', 'bersama', 'kh', 'bahauddin', 'nur', 'salim']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['peringatan', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'hijriah', 'gus', 'taj', 'yasin', 'maimoen', 'habib', 'hasan', 'aljuhri', 'gus']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['ingat', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'hijriah', 'gus', 'taj', 'yasin', 'maimoen', 'habib', 'hasan', 'aljuhri', 'gus']</t>
+          <t>['penutupan', 'mahrest', 'bedah', 'kitab', 'adabul', 'alim', 'mutaallim', 'kh', 'bahauddin', 'nur', 'salim']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['tutup', 'mahrest', 'bedah', 'kitab', 'adabul', 'alim', 'mutaallim', 'kh', 'bahauddin', 'nur', 'salim']</t>
         </is>
       </c>
     </row>
@@ -1907,34 +2112,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13490</v>
+        <v>29095</v>
       </c>
       <c r="C42" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>live ngaji bareng gus baha hari santri kab kudus pemkab kudus</t>
+          <t>ngaji bareng alumni langitan november</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'hari', 'santri', 'kab', 'kudus', 'pemkab', 'kudus']</t>
+          <t>['ngaji', 'bareng', 'alumni', 'langitan', 'november']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'alumni', 'langitan', 'november']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'santri', 'kab', 'kudus', 'pemkab', 'kudus']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'santri', 'kab', 'kudus', 'pemkab', 'kudus']</t>
+          <t>['mengaji', 'bareng', 'alumni', 'langitan', 'november']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'alumni', 'langit', 'november']</t>
         </is>
       </c>
     </row>
@@ -1943,34 +2153,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13491</v>
+        <v>29096</v>
       </c>
       <c r="C43" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ngaji bareng gus baha dalam rangka hari santri kab kudus kitab minhajut tholibin sabtu oktober</t>
+          <t>bedah kitab adabul alim wal mutaallim bersama gus baha minggu november jam wib livestreami</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'dalam', 'rangka', 'hari', 'santri', 'kab', 'kudus', 'kitab', 'minhajut', 'tholibin', 'sabtu', 'oktober']</t>
+          <t>['bedah', 'kitab', 'adabul', 'alim', 'wal', 'mutaallim', 'bersama', 'gus', 'baha', 'minggu', 'november', 'jam', 'wib', 'livestreami']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['bedah', 'kitab', 'adabul', 'alim', 'wah', 'mutaallim', 'bersama', 'gus', 'baha', 'minggu', 'november', 'jam', 'waktu, indonesia, bagian, barat', 'livestreami']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'rangka', 'santri', 'kab', 'kudus', 'kitab', 'minhajut', 'tholibin', 'sabtu', 'oktober']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'rangka', 'santri', 'kab', 'kudus', 'kitab', 'minhajut', 'tholibin', 'sabtu', 'oktober']</t>
+          <t>['bedah', 'kitab', 'adabul', 'alim', 'mutaallim', 'gus', 'baha', 'minggu', 'november', 'jam', 'waktu, indonesia, bagian, barat', 'livestreami']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['bedah', 'kitab', 'adabul', 'alim', 'mutaallim', 'gus', 'baha', 'minggu', 'november', 'jam', 'waktu indonesia bagi barat', 'livestreami']</t>
         </is>
       </c>
     </row>
@@ -1979,34 +2194,35 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13492</v>
+        <v>29097</v>
       </c>
       <c r="C44" t="n">
-        <v>175</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>tausiah kh bahaudin nursalim haul kh abdul hamid ke</t>
-        </is>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['tausiah', 'kh', 'bahaudin', 'nursalim', 'haul', 'kh', 'abdul', 'hamid', 'ke']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['tausiah', 'kh', 'bahaudin', 'nursalim', 'haul', 'kh', 'abdul', 'hamid']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['tausiah', 'kh', 'bahaudin', 'nursalim', 'haul', 'kh', 'abdul', 'hamid']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2015,34 +2231,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13493</v>
+        <v>29098</v>
       </c>
       <c r="C45" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>haul ke alarifbillah almaghfurlah kh abd hamid bin abdulloh bin umar mulai</t>
+          <t>gus baha bicara tentang madrasah</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['haul', 'ke', 'alarifbillah', 'almaghfurlah', 'kh', 'abd', 'hamid', 'bin', 'abdulloh', 'bin', 'umar', 'mulai']</t>
+          <t>['gus', 'baha', 'bicara', 'tentang', 'madrasah']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['gus', 'baha', 'bicara', 'tentang', 'madrasah']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['haul', 'alarifbillah', 'almaghfurlah', 'kh', 'abd', 'hamid', 'bin', 'abdulloh', 'bin', 'umar']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['haul', 'alarifbillah', 'almaghfurlah', 'kh', 'abd', 'hamid', 'bin', 'abdulloh', 'bin', 'umar']</t>
+          <t>['gus', 'baha', 'bicara', 'madrasah']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['gus', 'baha', 'bicara', 'madrasah']</t>
         </is>
       </c>
     </row>
@@ -2051,34 +2272,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13494</v>
+        <v>29099</v>
       </c>
       <c r="C46" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>haul almaghfurlah simbah kh mashoem amp simbah nyai hj nuriyyah gus baha di waktu ke</t>
+          <t xml:space="preserve">peringatan maulidurrosul nabi muhammad saw  pemerintah prov jawa tengah bersama gus taj yasin maimoen </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'amp', 'simbah', 'nyai', 'hj', 'nuriyyah', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
+          <t>['peringatan', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'pemerintah', 'prov', 'jawa', 'tengah', 'bersama', 'gus', 'taj', 'yasin', 'maimoen']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['peringatan', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'pemerintah', 'provinsi', 'jawa', 'tengah', 'bersama', 'gus', 'tai', 'yasin', 'maimoen']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'simbah', 'nyai', 'hj', 'nuriyyah', 'gus', 'baha']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'simbah', 'nyai', 'hj', 'nuriyyah', 'gus', 'baha']</t>
+          <t>['peringatan', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'pemerintah', 'provinsi', 'jawa', 'gus', 'tai', 'yasin', 'maimoen']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['ingat', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'perintah', 'provinsi', 'jawa', 'gus', 'tai', 'yasin', 'maimoen']</t>
         </is>
       </c>
     </row>
@@ -2087,34 +2313,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13495</v>
+        <v>29100</v>
       </c>
       <c r="C47" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>khataman dan ngaji bareng gus baha badan usaha milik negara bumn</t>
+          <t>peringatan maulidurrosul nabi muhammad saw hijriah bersama gus taj yasin maimoen habib hasan aljuhri gus</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['khataman', 'dan', 'ngaji', 'bareng', 'gus', 'baha', 'badan', 'usaha', 'milik', 'negara', 'bumn']</t>
+          <t>['peringatan', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'hijriah', 'bersama', 'gus', 'taj', 'yasin', 'maimoen', 'habib', 'hasan', 'aljuhri', 'gus']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['peringatan', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'hijriah', 'bersama', 'gus', 'tai', 'yasin', 'maimoen', 'habib', 'hasan', 'aljuhri', 'gus']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['khataman', 'ngaji', 'bareng', 'gus', 'baha', 'badan', 'usaha', 'milik', 'negara', 'bumn']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['khatam', 'ngaji', 'bareng', 'gus', 'baha', 'badan', 'usaha', 'milik', 'negara', 'bumn']</t>
+          <t>['peringatan', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'hijriah', 'gus', 'tai', 'yasin', 'maimoen', 'habib', 'hasan', 'aljuhri', 'gus']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['ingat', 'maulidurrosul', 'nabi', 'muhammad', 'saw', 'hijriah', 'gus', 'tai', 'yasin', 'maimoen', 'habib', 'hasan', 'aljuhri', 'gus']</t>
         </is>
       </c>
     </row>
@@ -2123,34 +2354,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13496</v>
+        <v>29101</v>
       </c>
       <c r="C48" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">forum qhse bumn konstruksi khataman dan ngaji bareng gus baha oktober jam wib live streaming </t>
+          <t>live ngaji bareng gus baha hari santri kab kudus pemkab kudus</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['forum', 'qhse', 'bumn', 'konstruksi', 'khataman', 'dan', 'ngaji', 'bareng', 'gus', 'baha', 'oktober', 'jam', 'wib', 'live', 'streaming']</t>
+          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'hari', 'santri', 'kab', 'kudus', 'pemkab', 'kudus']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['live', 'mengaji', 'bareng', 'gus', 'baha', 'hari', 'santri', 'kabupaten', 'kudus', 'pemerintah, kabupaten', 'kudus']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['forum', 'qhse', 'bumn', 'konstruksi', 'khataman', 'ngaji', 'bareng', 'gus', 'baha', 'oktober', 'jam', 'wib', 'live', 'streaming']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['forum', 'qhse', 'bumn', 'konstruksi', 'khatam', 'ngaji', 'bareng', 'gus', 'baha', 'oktober', 'jam', 'wib', 'live', 'streaming']</t>
+          <t>['live', 'mengaji', 'bareng', 'gus', 'baha', 'santri', 'kabupaten', 'kudus', 'pemerintah, kabupaten', 'kudus']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['live', 'aji', 'bareng', 'gus', 'baha', 'santri', 'kabupaten', 'kudus', 'perintah kabupaten', 'kudus']</t>
         </is>
       </c>
     </row>
@@ -2159,34 +2395,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13497</v>
+        <v>29102</v>
       </c>
       <c r="C49" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>haul almaghfurlah simbah kh mashoem amp simbah nyai hj nuriyyah jumat oktober pukul wib sem</t>
+          <t>ngaji bareng gus baha dalam rangka hari santri kab kudus kitab minhajut tholibin sabtu oktober</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'amp', 'simbah', 'nyai', 'hj', 'nuriyyah', 'jumat', 'oktober', 'pukul', 'wib', 'sem']</t>
+          <t>['ngaji', 'bareng', 'gus', 'baha', 'dalam', 'rangka', 'hari', 'santri', 'kab', 'kudus', 'kitab', 'minhajut', 'tholibin', 'sabtu', 'oktober']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'dalam', 'rangka', 'hari', 'santri', 'kabupaten', 'kudus', 'kitab', 'minhajut', 'tholibin', 'sabtu', 'oktober']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'simbah', 'nyai', 'hj', 'nuriyyah', 'jumat', 'oktober', 'wib', 'sem']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'simbah', 'nyai', 'hj', 'nuriyyah', 'jumat', 'oktober', 'wib', 'sem']</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'rangka', 'santri', 'kabupaten', 'kudus', 'kitab', 'minhajut', 'tholibin', 'sabtu', 'oktober']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'gus', 'baha', 'rangka', 'santri', 'kabupaten', 'kudus', 'kitab', 'minhajut', 'tholibin', 'sabtu', 'oktober']</t>
         </is>
       </c>
     </row>
@@ -2195,34 +2436,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13498</v>
+        <v>29103</v>
       </c>
       <c r="C50" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>live gus baha ngaji bareng jamaah jepara bersama habib zain aljufri amp habib abdurrahman assegaf</t>
+          <t>tausiah kh bahaudin nursalim haul kh abdul hamid ke</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['live', 'gus', 'baha', 'ngaji', 'bareng', 'jamaah', 'jepara', 'bersama', 'habib', 'zain', 'aljufri', 'amp', 'habib', 'abdurrahman', 'assegaf']</t>
+          <t>['tausiah', 'kh', 'bahaudin', 'nursalim', 'haul', 'kh', 'abdul', 'hamid', 'ke']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['tausiah', 'kh', 'bahaudin', 'nursalim', 'haul', 'kh', 'abdul', 'hamid', 'ke']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['live', 'gus', 'baha', 'ngaji', 'bareng', 'jamaah', 'jepara', 'habib', 'zain', 'aljufri', 'habib', 'abdurrahman', 'assegaf']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['live', 'gus', 'baha', 'ngaji', 'bareng', 'jamaah', 'jepara', 'habib', 'zain', 'aljufri', 'habib', 'abdurrahman', 'assegaf']</t>
+          <t>['tausiah', 'kh', 'bahaudin', 'nursalim', 'haul', 'kh', 'abdul', 'hamid']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['tausiah', 'kh', 'bahaudin', 'nursalim', 'haul', 'kh', 'abdul', 'hamid']</t>
         </is>
       </c>
     </row>
@@ -2231,34 +2477,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13499</v>
+        <v>29104</v>
       </c>
       <c r="C51" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>kuliah umum universitas nahdlatul ulama yogyakarta ilmu yang bermanfaat</t>
+          <t>haul ke alarifbillah almaghfurlah kh abd hamid bin abdulloh bin umar mulai</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['kuliah', 'umum', 'universitas', 'nahdlatul', 'ulama', 'yogyakarta', 'ilmu', 'yang', 'bermanfaat']</t>
+          <t>['haul', 'ke', 'alarifbillah', 'almaghfurlah', 'kh', 'abd', 'hamid', 'bin', 'abdulloh', 'bin', 'umar', 'mulai']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['haul', 'ke', 'alarifbillah', 'almaghfurlah', 'kh', 'abdi', 'hamid', 'bin', 'abdulloh', 'bin', 'umar', 'mulai']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['kuliah', 'universitas', 'nahdlatul', 'ulama', 'yogyakarta', 'ilmu', 'bermanfaat']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['kuliah', 'universitas', 'nahdlatul', 'ulama', 'yogyakarta', 'ilmu', 'manfaat']</t>
+          <t>['haul', 'alarifbillah', 'almaghfurlah', 'kh', 'abdi', 'hamid', 'bin', 'abdulloh', 'bin', 'umar']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['haul', 'alarifbillah', 'almaghfurlah', 'kh', 'abdi', 'hamid', 'bin', 'abdulloh', 'bin', 'umar']</t>
         </is>
       </c>
     </row>
@@ -2267,34 +2518,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13500</v>
+        <v>29105</v>
       </c>
       <c r="C52" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>silaturrahmi bersama habib ahmad alhabsyi di pondok pesantren lpia</t>
+          <t>haul almaghfurlah simbah kh mashoem amp simbah nyai hj nuriyyah gus baha di waktu ke</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['silaturrahmi', 'bersama', 'habib', 'ahmad', 'alhabsyi', 'di', 'pondok', 'pesantren', 'lpia']</t>
+          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'amp', 'simbah', 'nyai', 'hj', 'nuriyyah', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'amp', 'simbah', 'nyai', 'hj', 'nuriyyah', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['silaturrahmi', 'habib', 'ahmad', 'alhabsyi', 'pondok', 'pesantren', 'lpia']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['silaturrahmi', 'habib', 'ahmad', 'alhabsyi', 'pondok', 'pesantren', 'lpia']</t>
+          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'simbah', 'nyai', 'hj', 'nuriyyah', 'gus', 'baha']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'simbah', 'nyai', 'hj', 'nuriyyah', 'gus', 'baha']</t>
         </is>
       </c>
     </row>
@@ -2303,34 +2559,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13501</v>
+        <v>29106</v>
       </c>
       <c r="C53" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>mari disubscribe akun channel resmi dari pondok pesantren gus baha lpia</t>
+          <t>khataman dan ngaji bareng gus baha badan usaha milik negara bumn</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['mari', 'disubscribe', 'akun', 'channel', 'resmi', 'dari', 'pondok', 'pesantren', 'gus', 'baha', 'lpia']</t>
+          <t>['khataman', 'dan', 'ngaji', 'bareng', 'gus', 'baha', 'badan', 'usaha', 'milik', 'negara', 'bumn']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['khataman', 'dan', 'mengaji', 'bareng', 'gus', 'baha', 'badan', 'usaha', 'milik', 'negara', 'badan, usaha, milik, negara']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['mari', 'disubscribe', 'akun', 'channel', 'resmi', 'pondok', 'pesantren', 'gus', 'baha', 'lpia']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['mari', 'disubscribe', 'akun', 'channel', 'resmi', 'pondok', 'pesantren', 'gus', 'baha', 'lpia']</t>
+          <t>['khataman', 'mengaji', 'bareng', 'gus', 'baha', 'badan', 'usaha', 'milik', 'negara', 'badan, usaha, milik, negara']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['khatam', 'aji', 'bareng', 'gus', 'baha', 'badan', 'usaha', 'milik', 'negara', 'badan usaha milik negara']</t>
         </is>
       </c>
     </row>
@@ -2339,34 +2600,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13502</v>
+        <v>29107</v>
       </c>
       <c r="C54" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt malam silaturrahmi santri gayeng rembang di ndalem kh bahaudin nursalim gus baha ngaji hari ini</t>
+          <t xml:space="preserve">forum qhse bumn konstruksi khataman dan ngaji bareng gus baha oktober jam wib live streaming </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'malam', 'silaturrahmi', 'santri', 'gayeng', 'rembang', 'di', 'ndalem', 'kh', 'bahaudin', 'nursalim', 'gus', 'baha', 'ngaji', 'hari', 'ini']</t>
+          <t>['forum', 'qhse', 'bumn', 'konstruksi', 'khataman', 'dan', 'ngaji', 'bareng', 'gus', 'baha', 'oktober', 'jam', 'wib', 'live', 'streaming']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['forum', 'qhse', 'badan, usaha, milik, negara', 'konstruksi', 'khataman', 'dan', 'mengaji', 'bareng', 'gus', 'baha', 'oktober', 'jam', 'waktu, indonesia, bagian, barat', 'live', 'streaming']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['malam', 'silaturrahmi', 'santri', 'gayeng', 'rembang', 'ndalem', 'kh', 'bahaudin', 'nursalim', 'gus', 'baha', 'ngaji']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['malam', 'silaturrahmi', 'santri', 'gayeng', 'rembang', 'ndalem', 'kh', 'bahaudin', 'nursalim', 'gus', 'baha', 'ngaji']</t>
+          <t>['forum', 'qhse', 'badan, usaha, milik, negara', 'konstruksi', 'khataman', 'mengaji', 'bareng', 'gus', 'baha', 'oktober', 'jam', 'waktu, indonesia, bagian, barat', 'live', 'streaming']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['forum', 'qhse', 'badan usaha milik negara', 'konstruksi', 'khatam', 'aji', 'bareng', 'gus', 'baha', 'oktober', 'jam', 'waktu indonesia bagi barat', 'live', 'streaming']</t>
         </is>
       </c>
     </row>
@@ -2375,34 +2641,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13503</v>
+        <v>29108</v>
       </c>
       <c r="C55" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>haul muassis amp ngaji bareng gus baha</t>
+          <t>haul almaghfurlah simbah kh mashoem amp simbah nyai hj nuriyyah jumat oktober pukul wib sem</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['haul', 'muassis', 'amp', 'ngaji', 'bareng', 'gus', 'baha']</t>
+          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'amp', 'simbah', 'nyai', 'hj', 'nuriyyah', 'jumat', 'oktober', 'pukul', 'wib', 'sem']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'amp', 'simbah', 'nyai', 'hj', 'nuriyyah', 'jumat', 'oktober', 'pukul', 'waktu, indonesia, bagian, barat', 'sem']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['haul', 'muassis', 'ngaji', 'bareng', 'gus', 'baha']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['haul', 'muassis', 'ngaji', 'bareng', 'gus', 'baha']</t>
+          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'simbah', 'nyai', 'hj', 'nuriyyah', 'jumat', 'oktober', 'waktu, indonesia, bagian, barat', 'sem']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['haul', 'almaghfurlah', 'simbah', 'kh', 'mashoem', 'simbah', 'nyai', 'hj', 'nuriyyah', 'jumat', 'oktober', 'waktu indonesia bagi barat', 'sem']</t>
         </is>
       </c>
     </row>
@@ -2411,34 +2682,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13504</v>
+        <v>29109</v>
       </c>
       <c r="C56" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>haul muassis nu dan ngaji bareng livestreaming kamis september jam wib bersama dr kh</t>
+          <t>live gus baha ngaji bareng jamaah jepara bersama habib zain aljufri amp habib abdurrahman assegaf</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['haul', 'muassis', 'nu', 'dan', 'ngaji', 'bareng', 'livestreaming', 'kamis', 'september', 'jam', 'wib', 'bersama', 'dr', 'kh']</t>
+          <t>['live', 'gus', 'baha', 'ngaji', 'bareng', 'jamaah', 'jepara', 'bersama', 'habib', 'zain', 'aljufri', 'amp', 'habib', 'abdurrahman', 'assegaf']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['live', 'gus', 'baha', 'mengaji', 'bareng', 'jamaah', 'jepara', 'bersama', 'habib', 'zain', 'al, jufri', 'amp', 'habib', 'abdurrahman', 'assegaf']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['haul', 'muassis', 'nu', 'ngaji', 'bareng', 'livestreaming', 'kamis', 'september', 'jam', 'wib', 'dr', 'kh']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['haul', 'muassis', 'nu', 'ngaji', 'bareng', 'livestreaming', 'kamis', 'september', 'jam', 'wib', 'dr', 'kh']</t>
+          <t>['live', 'gus', 'baha', 'mengaji', 'bareng', 'jamaah', 'jepara', 'habib', 'zain', 'al, jufri', 'habib', 'abdurrahman', 'assegaf']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['live', 'gus', 'baha', 'aji', 'bareng', 'jamaah', 'jepara', 'habib', 'zain', 'al jufri', 'habib', 'abdurrahman', 'assegaf']</t>
         </is>
       </c>
     </row>
@@ -2447,34 +2723,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13505</v>
+        <v>29110</v>
       </c>
       <c r="C57" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ngaji bareng kh ahmad bahauddin nursalim kajian masjid baitul hasib bpk ri</t>
+          <t>kuliah umum universitas nahdlatul ulama yogyakarta ilmu yang bermanfaat</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'kajian', 'masjid', 'baitul', 'hasib', 'bpk', 'ri']</t>
+          <t>['kuliah', 'umum', 'universitas', 'nahdlatul', 'ulama', 'yogyakarta', 'ilmu', 'yang', 'bermanfaat']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['kuliah', 'umum', 'universitas', 'nahdlatul', 'ulama', 'yogyakarta', 'ilmu', 'yang', 'bermanfaat']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'kajian', 'masjid', 'baitul', 'hasib', 'bpk', 'ri']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'kaji', 'masjid', 'baitul', 'hasib', 'bpk', 'ri']</t>
+          <t>['kuliah', 'universitas', 'nahdlatul', 'ulama', 'yogyakarta', 'ilmu', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['kuliah', 'universitas', 'nahdlatul', 'ulama', 'yogyakarta', 'ilmu', 'manfaat']</t>
         </is>
       </c>
     </row>
@@ -2483,34 +2764,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13506</v>
+        <v>29111</v>
       </c>
       <c r="C58" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>rt alanwar stadium general dan taaruf santri dengan tema menjadi santri mbah moen di al anwar</t>
+          <t>silaturrahmi bersama habib ahmad alhabsyi di pondok pesantren lpia</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rt', 'alanwar', 'stadium', 'general', 'dan', 'taaruf', 'santri', 'dengan', 'tema', 'menjadi', 'santri', 'mbah', 'moen', 'di', 'al', 'anwar']</t>
+          <t>['silaturrahmi', 'bersama', 'habib', 'ahmad', 'alhabsyi', 'di', 'pondok', 'pesantren', 'lpia']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['silaturrahmi', 'bersama', 'habib', 'ahmad', 'alhabsyi', 'di', 'pondok', 'pesantren', 'lpia']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['alanwar', 'stadium', 'general', 'taaruf', 'santri', 'tema', 'santri', 'mbah', 'moen', 'al', 'anwar']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['alanwar', 'stadium', 'general', 'taaruf', 'santri', 'tema', 'santri', 'mbah', 'moen', 'al', 'anwar']</t>
+          <t>['silaturrahmi', 'habib', 'ahmad', 'alhabsyi', 'pondok', 'pesantren', 'lpia']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['silaturrahmi', 'habib', 'ahmad', 'alhabsyi', 'pondok', 'pesantren', 'lpia']</t>
         </is>
       </c>
     </row>
@@ -2519,34 +2805,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13507</v>
+        <v>29112</v>
       </c>
       <c r="C59" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>live gus baha adu riset kuno amp manhaj penulisan mushaf haul sayyid hamzah syatho sep</t>
+          <t>mari disubscribe akun channel resmi dari pondok pesantren gus baha lpia</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['live', 'gus', 'baha', 'adu', 'riset', 'kuno', 'amp', 'manhaj', 'penulisan', 'mushaf', 'haul', 'sayyid', 'hamzah', 'syatho', 'sep']</t>
+          <t>['mari', 'disubscribe', 'akun', 'channel', 'resmi', 'dari', 'pondok', 'pesantren', 'gus', 'baha', 'lpia']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['mari', 'disubscribe', 'akun', 'channel', 'resmi', 'dari', 'pondok', 'pesantren', 'gus', 'baha', 'lpia']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['live', 'gus', 'baha', 'adu', 'riset', 'kuno', 'manhaj', 'penulisan', 'mushaf', 'haul', 'sayyid', 'hamzah', 'syatho', 'sep']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['live', 'gus', 'baha', 'adu', 'riset', 'kuno', 'manhaj', 'tulis', 'mushaf', 'haul', 'sayyid', 'hamzah', 'syatho', 'sep']</t>
+          <t>['mari', 'disubscribe', 'akun', 'channel', 'resmi', 'pondok', 'pesantren', 'gus', 'baha', 'lpia']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['mari', 'disubscribe', 'akun', 'channel', 'resmi', 'pondok', 'pesantren', 'gus', 'baha', 'lpia']</t>
         </is>
       </c>
     </row>
@@ -2555,34 +2846,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13508</v>
+        <v>29113</v>
       </c>
       <c r="C60" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>haul ke sayyid hamzah syatho sidorejo sedan rembang muharrom  sept</t>
+          <t>rt malam silaturrahmi santri gayeng rembang di ndalem kh bahaudin nursalim gus baha ngaji hari ini</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['haul', 'ke', 'sayyid', 'hamzah', 'syatho', 'sidorejo', 'sedan', 'rembang', 'muharrom', 'sept']</t>
+          <t>['rt', 'malam', 'silaturrahmi', 'santri', 'gayeng', 'rembang', 'di', 'ndalem', 'kh', 'bahaudin', 'nursalim', 'gus', 'baha', 'ngaji', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'malam', 'silaturrahmi', 'santri', 'gayeng', 'rembang', 'di', 'ndalem', 'kh', 'bahaudin', 'nursalim', 'gus', 'baha', 'mengaji', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['haul', 'sayyid', 'hamzah', 'syatho', 'sidorejo', 'sedan', 'rembang', 'muharrom', 'sept']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['haul', 'sayyid', 'hamzah', 'syatho', 'sidorejo', 'sedan', 'rembang', 'muharrom', 'sept']</t>
+          <t>['malam', 'silaturrahmi', 'santri', 'gayeng', 'rembang', 'ndalem', 'kh', 'bahaudin', 'nursalim', 'gus', 'baha', 'mengaji']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['malam', 'silaturrahmi', 'santri', 'gayeng', 'rembang', 'ndalem', 'kh', 'bahaudin', 'nursalim', 'gus', 'baha', 'aji']</t>
         </is>
       </c>
     </row>
@@ -2591,34 +2887,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13509</v>
+        <v>29114</v>
       </c>
       <c r="C61" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>live ngaji bareng gus baha amp gus wafi haul ke tahun sayyid hamzah syatho sedan kamis</t>
+          <t>haul muassis amp ngaji bareng gus baha</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'amp', 'gus', 'wafi', 'haul', 'ke', 'tahun', 'sayyid', 'hamzah', 'syatho', 'sedan', 'kamis']</t>
+          <t>['haul', 'muassis', 'amp', 'ngaji', 'bareng', 'gus', 'baha']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['haul', 'muassis', 'amp', 'mengaji', 'bareng', 'gus', 'baha']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'gus', 'wafi', 'haul', 'sayyid', 'hamzah', 'syatho', 'sedan', 'kamis']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'gus', 'wafi', 'haul', 'sayyid', 'hamzah', 'syatho', 'sedan', 'kamis']</t>
+          <t>['haul', 'muassis', 'mengaji', 'bareng', 'gus', 'baha']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['haul', 'muassis', 'aji', 'bareng', 'gus', 'baha']</t>
         </is>
       </c>
     </row>
@@ -2627,34 +2928,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13510</v>
+        <v>29115</v>
       </c>
       <c r="C62" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>live streaming ngaji bareng gus bahaponpes mansyaul huda bogorejo september waktu ke</t>
+          <t>haul muassis nu dan ngaji bareng livestreaming kamis september jam wib bersama dr kh</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['live', 'streaming', 'ngaji', 'bareng', 'gus', 'bahaponpes', 'mansyaul', 'huda', 'bogorejo', 'september', 'waktu', 'ke']</t>
+          <t>['haul', 'muassis', 'nu', 'dan', 'ngaji', 'bareng', 'livestreaming', 'kamis', 'september', 'jam', 'wib', 'bersama', 'dr', 'kh']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['haul', 'muassis', 'nu', 'dan', 'mengaji', 'bareng', 'livestreaming', 'kamis', 'september', 'jam', 'waktu, indonesia, bagian, barat', 'bersama', 'dari', 'kh']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['live', 'streaming', 'ngaji', 'bareng', 'gus', 'bahaponpes', 'mansyaul', 'huda', 'bogorejo', 'september']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['live', 'streaming', 'ngaji', 'bareng', 'gus', 'bahaponpes', 'mansyaul', 'huda', 'bogorejo', 'september']</t>
+          <t>['haul', 'muassis', 'nu', 'mengaji', 'bareng', 'livestreaming', 'kamis', 'september', 'jam', 'waktu, indonesia, bagian, barat', 'kh']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['haul', 'muassis', 'nu', 'aji', 'bareng', 'livestreaming', 'kamis', 'september', 'jam', 'waktu indonesia bagi barat', 'kh']</t>
         </is>
       </c>
     </row>
@@ -2663,34 +2969,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13511</v>
+        <v>29116</v>
       </c>
       <c r="C63" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>live ngaji bareng gus baha di pondok pesantren mansyaul huda bogorejo ahad september</t>
+          <t>ngaji bareng kh ahmad bahauddin nursalim kajian masjid baitul hasib bpk ri</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'di', 'pondok', 'pesantren', 'mansyaul', 'huda', 'bogorejo', 'ahad', 'september']</t>
+          <t>['ngaji', 'bareng', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'kajian', 'masjid', 'baitul', 'hasib', 'bpk', 'ri']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'kajian', 'masjid', 'baitul', 'hasib', 'bapak', 'ri']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'pondok', 'pesantren', 'mansyaul', 'huda', 'bogorejo', 'ahad', 'september']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'pondok', 'pesantren', 'mansyaul', 'huda', 'bogorejo', 'ahad', 'september']</t>
+          <t>['mengaji', 'bareng', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'kajian', 'masjid', 'baitul', 'hasib', 'ri']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'kaji', 'masjid', 'baitul', 'hasib', 'ri']</t>
         </is>
       </c>
     </row>
@@ -2699,34 +3010,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13512</v>
+        <v>29117</v>
       </c>
       <c r="C64" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>madrasah tsanawiyah mansyaul huda live gus baha september blora waktu ke</t>
+          <t>rt alanwar stadium general dan taaruf santri dengan tema menjadi santri mbah moen di al anwar</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['madrasah', 'tsanawiyah', 'mansyaul', 'huda', 'live', 'gus', 'baha', 'september', 'blora', 'waktu', 'ke']</t>
+          <t>['rt', 'alanwar', 'stadium', 'general', 'dan', 'taaruf', 'santri', 'dengan', 'tema', 'menjadi', 'santri', 'mbah', 'moen', 'di', 'al', 'anwar']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'alanwar', 'stadium', 'general', 'dan', 'taaruf', 'santri', 'dengan', 'tema', 'menjadi', 'santri', 'mbah', 'momen', 'di', 'al', 'anwar']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['madrasah', 'tsanawiyah', 'mansyaul', 'huda', 'live', 'gus', 'baha', 'september', 'blora']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['madrasah', 'tsanawiyah', 'mansyaul', 'huda', 'live', 'gus', 'baha', 'september', 'blora']</t>
+          <t>['alanwar', 'stadium', 'general', 'taaruf', 'santri', 'tema', 'santri', 'mbah', 'momen', 'al', 'anwar']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['alanwar', 'stadium', 'general', 'taaruf', 'santri', 'tema', 'santri', 'mbah', 'momen', 'al', 'anwar']</t>
         </is>
       </c>
     </row>
@@ -2735,34 +3051,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13513</v>
+        <v>29118</v>
       </c>
       <c r="C65" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngaji kebangsaan unisma malang bersama gus baha ngaji kebangsaan dialektika islam amp </t>
+          <t>live gus baha adu riset kuno amp manhaj penulisan mushaf haul sayyid hamzah syatho sep</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['ngaji', 'kebangsaan', 'unisma', 'malang', 'bersama', 'gus', 'baha', 'ngaji', 'kebangsaan', 'dialektika', 'islam', 'amp']</t>
+          <t>['live', 'gus', 'baha', 'adu', 'riset', 'kuno', 'amp', 'manhaj', 'penulisan', 'mushaf', 'haul', 'sayyid', 'hamzah', 'syatho', 'sep']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>['live', 'gus', 'baha', 'adu', 'riset', 'kuno', 'amp', 'manhaj', 'penulisan', 'mushaf', 'haul', 'sayid', 'hamzah', 'syatho', 'sep']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['ngaji', 'kebangsaan', 'unisma', 'malang', 'gus', 'baha', 'ngaji', 'kebangsaan', 'dialektika', 'islam']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['ngaji', 'bangsa', 'unisma', 'malang', 'gus', 'baha', 'ngaji', 'bangsa', 'dialektika', 'islam']</t>
+          <t>['live', 'gus', 'baha', 'adu', 'riset', 'kuno', 'manhaj', 'penulisan', 'mushaf', 'haul', 'sayid', 'hamzah', 'syatho', 'sep']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['live', 'gus', 'baha', 'adu', 'riset', 'kuno', 'manhaj', 'tulis', 'mushaf', 'haul', 'sayid', 'hamzah', 'syatho', 'sep']</t>
         </is>
       </c>
     </row>
@@ -2771,34 +3092,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13514</v>
+        <v>29119</v>
       </c>
       <c r="C66" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>tahlil dan doa bersama memperingati tahun baru hijriyah amp haul ke syaikhuna kh maimoen zubair live gus ba</t>
+          <t>haul ke sayyid hamzah syatho sidorejo sedan rembang muharrom  sept</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['tahlil', 'dan', 'doa', 'bersama', 'memperingati', 'tahun', 'baru', 'hijriyah', 'amp', 'haul', 'ke', 'syaikhuna', 'kh', 'maimoen', 'zubair', 'live', 'gus', 'ba']</t>
+          <t>['haul', 'ke', 'sayyid', 'hamzah', 'syatho', 'sidorejo', 'sedan', 'rembang', 'muharrom', 'sept']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['haul', 'ke', 'sayid', 'hamzah', 'syatho', 'sidorejo', 'sedan', 'rembang', 'muharrom', 'september']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['tahlil', 'doa', 'memperingati', 'hijriyah', 'haul', 'syaikhuna', 'kh', 'maimoen', 'zubair', 'live', 'gus', 'ba']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['tahlil', 'doa', 'ingat', 'hijriyah', 'haul', 'syaikhuna', 'kh', 'maimoen', 'zubair', 'live', 'gus', 'ba']</t>
+          <t>['haul', 'sayid', 'hamzah', 'syatho', 'sidorejo', 'sedan', 'rembang', 'muharrom', 'september']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['haul', 'sayid', 'hamzah', 'syatho', 'sidorejo', 'sedan', 'rembang', 'muharrom', 'september']</t>
         </is>
       </c>
     </row>
@@ -2807,34 +3133,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13515</v>
+        <v>29120</v>
       </c>
       <c r="C67" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>pengajian gus baha di haul kh mushthofa ke tambak lekok kec lekok kab pasuruan</t>
+          <t>live ngaji bareng gus baha amp gus wafi haul ke tahun sayyid hamzah syatho sedan kamis</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['pengajian', 'gus', 'baha', 'di', 'haul', 'kh', 'mushthofa', 'ke', 'tambak', 'lekok', 'kec', 'lekok', 'kab', 'pasuruan']</t>
+          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'amp', 'gus', 'wafi', 'haul', 'ke', 'tahun', 'sayyid', 'hamzah', 'syatho', 'sedan', 'kamis']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['live', 'mengaji', 'bareng', 'gus', 'baha', 'amp', 'gus', 'wafi', 'haul', 'ke', 'tahun', 'sayid', 'hamzah', 'syatho', 'sedan', 'kamis']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['pengajian', 'gus', 'baha', 'haul', 'kh', 'mushthofa', 'tambak', 'lekok', 'kec', 'lekok', 'kab', 'pasuruan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['aji', 'gus', 'baha', 'haul', 'kh', 'mushthofa', 'tambak', 'lekok', 'kec', 'lekok', 'kab', 'pasuruan']</t>
+          <t>['live', 'mengaji', 'bareng', 'gus', 'baha', 'gus', 'wafi', 'haul', 'sayid', 'hamzah', 'syatho', 'sedan', 'kamis']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['live', 'aji', 'bareng', 'gus', 'baha', 'gus', 'wafi', 'haul', 'sayid', 'hamzah', 'syatho', 'sedan', 'kamis']</t>
         </is>
       </c>
     </row>
@@ -2843,34 +3174,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13516</v>
+        <v>29121</v>
       </c>
       <c r="C68" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>live pengajian gus baha amp gus mus haul syekh ahmad mutamakkin kajen oleh mathaliul falah</t>
+          <t>live streaming ngaji bareng gus bahaponpes mansyaul huda bogorejo september waktu ke</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['live', 'pengajian', 'gus', 'baha', 'amp', 'gus', 'mus', 'haul', 'syekh', 'ahmad', 'mutamakkin', 'kajen', 'oleh', 'mathaliul', 'falah']</t>
+          <t>['live', 'streaming', 'ngaji', 'bareng', 'gus', 'bahaponpes', 'mansyaul', 'huda', 'bogorejo', 'september', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['live', 'streaming', 'mengaji', 'bareng', 'gus', 'bahaponpes', 'mansyaul', 'huda', 'bogorejo', 'september', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['live', 'pengajian', 'gus', 'baha', 'gus', 'mus', 'haul', 'syekh', 'ahmad', 'mutamakkin', 'kajen', 'mathaliul', 'falah']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['live', 'aji', 'gus', 'baha', 'gus', 'mus', 'haul', 'syekh', 'ahmad', 'mutamakkin', 'kajen', 'mathaliul', 'falah']</t>
+          <t>['live', 'streaming', 'mengaji', 'bareng', 'gus', 'bahaponpes', 'mansyaul', 'huda', 'bogorejo', 'september']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['live', 'streaming', 'aji', 'bareng', 'gus', 'bahaponpes', 'mansyaul', 'huda', 'bogorejo', 'september']</t>
         </is>
       </c>
     </row>
@@ -2879,34 +3215,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13517</v>
+        <v>29122</v>
       </c>
       <c r="C69" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>pengajian umum haul kh ahmad mutamakkin perguruan islam mathaliul falah kajen margoyoso pati jateng bersama</t>
+          <t>live ngaji bareng gus baha di pondok pesantren mansyaul huda bogorejo ahad september</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['pengajian', 'umum', 'haul', 'kh', 'ahmad', 'mutamakkin', 'perguruan', 'islam', 'mathaliul', 'falah', 'kajen', 'margoyoso', 'pati', 'jateng', 'bersama']</t>
+          <t>['live', 'ngaji', 'bareng', 'gus', 'baha', 'di', 'pondok', 'pesantren', 'mansyaul', 'huda', 'bogorejo', 'ahad', 'september']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['live', 'mengaji', 'bareng', 'gus', 'baha', 'di', 'pondok', 'pesantren', 'mansyaul', 'huda', 'bogorejo', 'ahad', 'september']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['pengajian', 'haul', 'kh', 'ahmad', 'mutamakkin', 'perguruan', 'islam', 'mathaliul', 'falah', 'kajen', 'margoyoso', 'pati', 'jateng']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['aji', 'haul', 'kh', 'ahmad', 'mutamakkin', 'guru', 'islam', 'mathaliul', 'falah', 'kajen', 'margoyoso', 'pati', 'jateng']</t>
+          <t>['live', 'mengaji', 'bareng', 'gus', 'baha', 'pondok', 'pesantren', 'mansyaul', 'huda', 'bogorejo', 'ahad', 'september']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['live', 'aji', 'bareng', 'gus', 'baha', 'pondok', 'pesantren', 'mansyaul', 'huda', 'bogorejo', 'ahad', 'september']</t>
         </is>
       </c>
     </row>
@@ -2915,34 +3256,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13518</v>
+        <v>29123</v>
       </c>
       <c r="C70" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>hadirilah tahlil dan doa bersama memperingati tahun baru hijriyah dan haul ke syaikhuna kh maimun zubai</t>
+          <t>madrasah tsanawiyah mansyaul huda live gus baha september blora waktu ke</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['hadirilah', 'tahlil', 'dan', 'doa', 'bersama', 'memperingati', 'tahun', 'baru', 'hijriyah', 'dan', 'haul', 'ke', 'syaikhuna', 'kh', 'maimun', 'zubai']</t>
+          <t>['madrasah', 'tsanawiyah', 'mansyaul', 'huda', 'live', 'gus', 'baha', 'september', 'blora', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['madrasah', 'tsanawiyah', 'mansyaul', 'huda', 'live', 'gus', 'baha', 'september', 'blora', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['hadirilah', 'tahlil', 'doa', 'memperingati', 'hijriyah', 'haul', 'syaikhuna', 'kh', 'maimun', 'zubai']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['hadir', 'tahlil', 'doa', 'ingat', 'hijriyah', 'haul', 'syaikhuna', 'kh', 'maimun', 'zubai']</t>
+          <t>['madrasah', 'tsanawiyah', 'mansyaul', 'huda', 'live', 'gus', 'baha', 'september', 'blora']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['madrasah', 'tsanawiyah', 'mansyaul', 'huda', 'live', 'gus', 'baha', 'september', 'blora']</t>
         </is>
       </c>
     </row>
@@ -2951,34 +3297,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13519</v>
+        <v>29124</v>
       </c>
       <c r="C71" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ngaji bareng gus baha universitas islam indonesia gus baha di waktu ke</t>
+          <t xml:space="preserve">ngaji kebangsaan unisma malang bersama gus baha ngaji kebangsaan dialektika islam amp </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'universitas', 'islam', 'indonesia', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
+          <t>['ngaji', 'kebangsaan', 'unisma', 'malang', 'bersama', 'gus', 'baha', 'ngaji', 'kebangsaan', 'dialektika', 'islam', 'amp']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['mengaji', 'kebangsaan', 'unisma', 'malang', 'bersama', 'gus', 'baha', 'mengaji', 'kebangsaan', 'dialektika', 'islam', 'amp']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'universitas', 'islam', 'indonesia', 'gus', 'baha']</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'gus', 'baha', 'universitas', 'islam', 'indonesia', 'gus', 'baha']</t>
+          <t>['mengaji', 'kebangsaan', 'unisma', 'malang', 'gus', 'baha', 'mengaji', 'kebangsaan', 'dialektika', 'islam']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['aji', 'bangsa', 'unisma', 'malang', 'gus', 'baha', 'aji', 'bangsa', 'dialektika', 'islam']</t>
         </is>
       </c>
     </row>
@@ -2987,34 +3338,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13520</v>
+        <v>29125</v>
       </c>
       <c r="C72" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>universitas islam indonesia kajian spesial ngaji bareng gus baha senin agustus muharram  puku</t>
+          <t>tahlil dan doa bersama memperingati tahun baru hijriyah amp haul ke syaikhuna kh maimoen zubair live gus ba</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['universitas', 'islam', 'indonesia', 'kajian', 'spesial', 'ngaji', 'bareng', 'gus', 'baha', 'senin', 'agustus', 'muharram', 'puku']</t>
+          <t>['tahlil', 'dan', 'doa', 'bersama', 'memperingati', 'tahun', 'baru', 'hijriyah', 'amp', 'haul', 'ke', 'syaikhuna', 'kh', 'maimoen', 'zubair', 'live', 'gus', 'ba']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['tahlil', 'dan', 'doa', 'bersama', 'memperingati', 'tahun', 'baru', 'hijriyah', 'amp', 'haul', 'ke', 'syaikhuna', 'kh', 'maimoen', 'zubair', 'live', 'gus', 'ba']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['universitas', 'islam', 'indonesia', 'kajian', 'spesial', 'ngaji', 'bareng', 'gus', 'baha', 'senin', 'agustus', 'muharram', 'puku']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['universitas', 'islam', 'indonesia', 'kaji', 'spesial', 'ngaji', 'bareng', 'gus', 'baha', 'senin', 'agustus', 'muharram', 'puku']</t>
+          <t>['tahlil', 'doa', 'memperingati', 'hijriyah', 'haul', 'syaikhuna', 'kh', 'maimoen', 'zubair', 'live', 'gus', 'ba']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['tahlil', 'doa', 'ingat', 'hijriyah', 'haul', 'syaikhuna', 'kh', 'maimoen', 'zubair', 'live', 'gus', 'ba']</t>
         </is>
       </c>
     </row>
@@ -3023,34 +3379,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13521</v>
+        <v>29126</v>
       </c>
       <c r="C73" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ngaji kebangsaan dialektika islam dan kebangsaan tafsir islam damai untuk keharmonisan bersama kh ahmad ba</t>
+          <t>pengajian gus baha di haul kh mushthofa ke tambak lekok kec lekok kab pasuruan</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['ngaji', 'kebangsaan', 'dialektika', 'islam', 'dan', 'kebangsaan', 'tafsir', 'islam', 'damai', 'untuk', 'keharmonisan', 'bersama', 'kh', 'ahmad', 'ba']</t>
+          <t>['pengajian', 'gus', 'baha', 'di', 'haul', 'kh', 'mushthofa', 'ke', 'tambak', 'lekok', 'kec', 'lekok', 'kab', 'pasuruan']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['pengajian', 'gus', 'baha', 'di', 'haul', 'kh', 'mushthofa', 'ke', 'tambak', 'lekok', 'kecamatan', 'lekok', 'kabupaten', 'pasuruan']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['ngaji', 'kebangsaan', 'dialektika', 'islam', 'kebangsaan', 'tafsir', 'islam', 'damai', 'keharmonisan', 'kh', 'ahmad', 'ba']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['ngaji', 'bangsa', 'dialektika', 'islam', 'bangsa', 'tafsir', 'islam', 'damai', 'harmonis', 'kh', 'ahmad', 'ba']</t>
+          <t>['pengajian', 'gus', 'baha', 'haul', 'kh', 'mushthofa', 'tambak', 'lekok', 'kecamatan', 'lekok', 'kabupaten', 'pasuruan']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['aji', 'gus', 'baha', 'haul', 'kh', 'mushthofa', 'tambak', 'lekok', 'camat', 'lekok', 'kabupaten', 'pasuruan']</t>
         </is>
       </c>
     </row>
@@ -3059,34 +3420,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13522</v>
+        <v>29127</v>
       </c>
       <c r="C74" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt ceramah resume singkat pengajian gus baha hari ini di unissula via</t>
+          <t>live pengajian gus baha amp gus mus haul syekh ahmad mutamakkin kajen oleh mathaliul falah</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'ceramah', 'resume', 'singkat', 'pengajian', 'gus', 'baha', 'hari', 'ini', 'di', 'unissula', 'via']</t>
+          <t>['live', 'pengajian', 'gus', 'baha', 'amp', 'gus', 'mus', 'haul', 'syekh', 'ahmad', 'mutamakkin', 'kajen', 'oleh', 'mathaliul', 'falah']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['live', 'pengajian', 'gus', 'baha', 'amp', 'gus', 'mus', 'haul', 'syekh', 'ahmad', 'mutamakkin', 'kajen', 'oleh', 'mathaliul', 'falah']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['ceramah', 'resume', 'singkat', 'pengajian', 'gus', 'baha', 'unissula', 'via']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['ceramah', 'resume', 'singkat', 'aji', 'gus', 'baha', 'unissula', 'via']</t>
+          <t>['live', 'pengajian', 'gus', 'baha', 'gus', 'mus', 'haul', 'syekh', 'ahmad', 'mutamakkin', 'kajen', 'mathaliul', 'falah']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['live', 'aji', 'gus', 'baha', 'gus', 'mus', 'haul', 'syekh', 'ahmad', 'mutamakkin', 'kajen', 'mathaliul', 'falah']</t>
         </is>
       </c>
     </row>
@@ -3095,34 +3461,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13523</v>
+        <v>29128</v>
       </c>
       <c r="C75" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>unissula ngaji bareng gus baha rabu agustus dalam rangka peringatan tahun baru islam kh ahmad bahauddin</t>
+          <t>pengajian umum haul kh ahmad mutamakkin perguruan islam mathaliul falah kajen margoyoso pati jateng bersama</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['unissula', 'ngaji', 'bareng', 'gus', 'baha', 'rabu', 'agustus', 'dalam', 'rangka', 'peringatan', 'tahun', 'baru', 'islam', 'kh', 'ahmad', 'bahauddin']</t>
+          <t>['pengajian', 'umum', 'haul', 'kh', 'ahmad', 'mutamakkin', 'perguruan', 'islam', 'mathaliul', 'falah', 'kajen', 'margoyoso', 'pati', 'jateng', 'bersama']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['pengajian', 'umum', 'haul', 'kh', 'ahmad', 'mutamakkin', 'perguruan', 'islam', 'mathaliul', 'falah', 'kajen', 'margoyoso', 'pati', 'jawa, tengah', 'bersama']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['unissula', 'ngaji', 'bareng', 'gus', 'baha', 'rabu', 'agustus', 'rangka', 'peringatan', 'islam', 'kh', 'ahmad', 'bahauddin']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['unissula', 'ngaji', 'bareng', 'gus', 'baha', 'rabu', 'agustus', 'rangka', 'ingat', 'islam', 'kh', 'ahmad', 'bahauddin']</t>
+          <t>['pengajian', 'haul', 'kh', 'ahmad', 'mutamakkin', 'perguruan', 'islam', 'mathaliul', 'falah', 'kajen', 'margoyoso', 'pati', 'jawa, tengah']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['aji', 'haul', 'kh', 'ahmad', 'mutamakkin', 'guru', 'islam', 'mathaliul', 'falah', 'kajen', 'margoyoso', 'pati', 'jawa tengah']</t>
         </is>
       </c>
     </row>
@@ -3131,34 +3502,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13524</v>
+        <v>29129</v>
       </c>
       <c r="C76" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt live gus baha sekarang via aula nu</t>
+          <t>hadirilah tahlil dan doa bersama memperingati tahun baru hijriyah dan haul ke syaikhuna kh maimun zubai</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'live', 'gus', 'baha', 'sekarang', 'via', 'aula', 'nu']</t>
+          <t>['hadirilah', 'tahlil', 'dan', 'doa', 'bersama', 'memperingati', 'tahun', 'baru', 'hijriyah', 'dan', 'haul', 'ke', 'syaikhuna', 'kh', 'maimun', 'zubai']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['hadirilah', 'tahlil', 'dan', 'doa', 'bersama', 'memperingati', 'tahun', 'baru', 'hijriyah', 'dan', 'haul', 'ke', 'syaikhuna', 'kh', 'maimun', 'zubai']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['live', 'gus', 'baha', 'via', 'aula', 'nu']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['live', 'gus', 'baha', 'via', 'aula', 'nu']</t>
+          <t>['hadirilah', 'tahlil', 'doa', 'memperingati', 'hijriyah', 'haul', 'syaikhuna', 'kh', 'maimun', 'zubai']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['hadir', 'tahlil', 'doa', 'ingat', 'hijriyah', 'haul', 'syaikhuna', 'kh', 'maimun', 'zubai']</t>
         </is>
       </c>
     </row>
@@ -3167,34 +3543,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13525</v>
+        <v>29130</v>
       </c>
       <c r="C77" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt dikirimi ponakan guse seneng ambe arek cilik</t>
+          <t>ngaji bareng gus baha universitas islam indonesia gus baha di waktu ke</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'dikirimi', 'ponakan', 'guse', 'seneng', 'ambe', 'arek', 'cilik']</t>
+          <t>['ngaji', 'bareng', 'gus', 'baha', 'universitas', 'islam', 'indonesia', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'universitas', 'islam', 'indonesia', 'gus', 'baha', 'di', 'waktu', 'ke']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['dikirimi', 'ponakan', 'guse', 'seneng', 'ambe', 'arek', 'cilik']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['kirim', 'ponakan', 'guse', 'neng', 'ambe', 'arek', 'cilik']</t>
+          <t>['mengaji', 'bareng', 'gus', 'baha', 'universitas', 'islam', 'indonesia', 'gus', 'baha']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'gus', 'baha', 'universitas', 'islam', 'indonesia', 'gus', 'baha']</t>
         </is>
       </c>
     </row>
@@ -3203,34 +3584,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13526</v>
+        <v>29131</v>
       </c>
       <c r="C78" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>tabligh akbar telkom university bersama kh ahmad bahauddin nursalim gus baha tablig</t>
+          <t>universitas islam indonesia kajian spesial ngaji bareng gus baha senin agustus muharram  puku</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['tabligh', 'akbar', 'telkom', 'university', 'bersama', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'tablig']</t>
+          <t>['universitas', 'islam', 'indonesia', 'kajian', 'spesial', 'ngaji', 'bareng', 'gus', 'baha', 'senin', 'agustus', 'muharram', 'puku']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['universitas', 'islam', 'indonesia', 'kajian', 'spesial', 'mengaji', 'bareng', 'gus', 'baha', 'senin', 'agustus', 'muharam', 'puku']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['tabligh', 'akbar', 'telkom', 'university', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'tablig']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['tabligh', 'akbar', 'telkom', 'university', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'tablig']</t>
+          <t>['universitas', 'islam', 'indonesia', 'kajian', 'spesial', 'mengaji', 'bareng', 'gus', 'baha', 'senin', 'agustus', 'muharam', 'puku']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['universitas', 'islam', 'indonesia', 'kaji', 'spesial', 'aji', 'bareng', 'gus', 'baha', 'senin', 'agustus', 'muharam', 'puku']</t>
         </is>
       </c>
     </row>
@@ -3239,34 +3625,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13527</v>
+        <v>29132</v>
       </c>
       <c r="C79" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>universitas islam sultan agung ngaji bersama gus baha dalam rangka peringatan tahun baru islam narasumber kh</t>
+          <t>ngaji kebangsaan dialektika islam dan kebangsaan tafsir islam damai untuk keharmonisan bersama kh ahmad ba</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['universitas', 'islam', 'sultan', 'agung', 'ngaji', 'bersama', 'gus', 'baha', 'dalam', 'rangka', 'peringatan', 'tahun', 'baru', 'islam', 'narasumber', 'kh']</t>
+          <t>['ngaji', 'kebangsaan', 'dialektika', 'islam', 'dan', 'kebangsaan', 'tafsir', 'islam', 'damai', 'untuk', 'keharmonisan', 'bersama', 'kh', 'ahmad', 'ba']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['mengaji', 'kebangsaan', 'dialektika', 'islam', 'dan', 'kebangsaan', 'tafsir', 'islam', 'damai', 'untuk', 'keharmonisan', 'bersama', 'kh', 'ahmad', 'ba']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['universitas', 'islam', 'sultan', 'agung', 'ngaji', 'gus', 'baha', 'rangka', 'peringatan', 'islam', 'narasumber', 'kh']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['universitas', 'islam', 'sultan', 'agung', 'ngaji', 'gus', 'baha', 'rangka', 'ingat', 'islam', 'narasumber', 'kh']</t>
+          <t>['mengaji', 'kebangsaan', 'dialektika', 'islam', 'kebangsaan', 'tafsir', 'islam', 'damai', 'keharmonisan', 'kh', 'ahmad', 'ba']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['aji', 'bangsa', 'dialektika', 'islam', 'bangsa', 'tafsir', 'islam', 'damai', 'harmonis', 'kh', 'ahmad', 'ba']</t>
         </is>
       </c>
     </row>
@@ -3275,34 +3666,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13528</v>
+        <v>29133</v>
       </c>
       <c r="C80" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt langit sarang rembang kembali menangisi kepergian orang alim yang berada di sana hari ini gus robah bin kh ubab bi</t>
+          <t>rt ceramah resume singkat pengajian gus baha hari ini di unissula via</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'langit', 'sarang', 'rembang', 'kembali', 'menangisi', 'kepergian', 'orang', 'alim', 'yang', 'berada', 'di', 'sana', 'hari', 'ini', 'gus', 'robah', 'bin', 'kh', 'ubab', 'bi']</t>
+          <t>['rt', 'ceramah', 'resume', 'singkat', 'pengajian', 'gus', 'baha', 'hari', 'ini', 'di', 'unissula', 'via']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'ceramah', 'resume', 'singkat', 'pengajian', 'gus', 'baha', 'hari', 'ini', 'di', 'unissula', 'via']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['langit', 'sarang', 'rembang', 'menangisi', 'kepergian', 'orang', 'alim', 'gus', 'robah', 'bin', 'kh', 'ubab', 'bi']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['langit', 'sarang', 'rembang', 'tangis', 'pergi', 'orang', 'alim', 'gus', 'robah', 'bin', 'kh', 'ubab', 'bi']</t>
+          <t>['ceramah', 'resume', 'singkat', 'pengajian', 'gus', 'baha', 'unissula', 'via']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['ceramah', 'resume', 'singkat', 'aji', 'gus', 'baha', 'unissula', 'via']</t>
         </is>
       </c>
     </row>
@@ -3311,34 +3707,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13529</v>
+        <v>29134</v>
       </c>
       <c r="C81" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">tabligh akbar telkom university dengan tema tauhid sebagai inspirasi dalam kontribusi membangun bangsa kh ahmad </t>
+          <t>unissula ngaji bareng gus baha rabu agustus dalam rangka peringatan tahun baru islam kh ahmad bahauddin</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['tabligh', 'akbar', 'telkom', 'university', 'dengan', 'tema', 'tauhid', 'sebagai', 'inspirasi', 'dalam', 'kontribusi', 'membangun', 'bangsa', 'kh', 'ahmad']</t>
+          <t>['unissula', 'ngaji', 'bareng', 'gus', 'baha', 'rabu', 'agustus', 'dalam', 'rangka', 'peringatan', 'tahun', 'baru', 'islam', 'kh', 'ahmad', 'bahauddin']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['unissula', 'mengaji', 'bareng', 'gus', 'baha', 'rabu', 'agustus', 'dalam', 'rangka', 'peringatan', 'tahun', 'baru', 'islam', 'kh', 'ahmad', 'bahauddin']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['tabligh', 'akbar', 'telkom', 'university', 'tema', 'tauhid', 'inspirasi', 'kontribusi', 'membangun', 'bangsa', 'kh', 'ahmad']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['tabligh', 'akbar', 'telkom', 'university', 'tema', 'tauhid', 'inspirasi', 'kontribusi', 'bangun', 'bangsa', 'kh', 'ahmad']</t>
+          <t>['unissula', 'mengaji', 'bareng', 'gus', 'baha', 'rabu', 'agustus', 'rangka', 'peringatan', 'islam', 'kh', 'ahmad', 'bahauddin']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['unissula', 'aji', 'bareng', 'gus', 'baha', 'rabu', 'agustus', 'rangka', 'ingat', 'islam', 'kh', 'ahmad', 'bahauddin']</t>
         </is>
       </c>
     </row>
@@ -3347,34 +3748,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13530</v>
+        <v>29135</v>
       </c>
       <c r="C82" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>live haul pertama kh maimoen zubair himma kudus</t>
+          <t>rt live gus baha sekarang via aula nu</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['live', 'haul', 'pertama', 'kh', 'maimoen', 'zubair', 'himma', 'kudus']</t>
+          <t>['rt', 'live', 'gus', 'baha', 'sekarang', 'via', 'aula', 'nu']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['rt', 'live', 'gus', 'baha', 'sekarang', 'via', 'aula', 'nu']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['live', 'haul', 'kh', 'maimoen', 'zubair', 'himma', 'kudus']</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['live', 'haul', 'kh', 'maimoen', 'zubair', 'himma', 'kudus']</t>
+          <t>['live', 'gus', 'baha', 'via', 'aula', 'nu']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['live', 'gus', 'baha', 'via', 'aula', 'nu']</t>
         </is>
       </c>
     </row>
@@ -3383,34 +3789,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13531</v>
+        <v>29136</v>
       </c>
       <c r="C83" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>khoul ke  hadrotussyeh kh maemoen zubair tahlil hari kh majid kamil mz bersama kh bahauddin nur salim gus</t>
+          <t>rt dikirimi ponakan guse seneng ambe arek cilik</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['khoul', 'ke', 'hadrotussyeh', 'kh', 'maemoen', 'zubair', 'tahlil', 'hari', 'kh', 'majid', 'kamil', 'mz', 'bersama', 'kh', 'bahauddin', 'nur', 'salim', 'gus']</t>
+          <t>['rt', 'dikirimi', 'ponakan', 'guse', 'seneng', 'ambe', 'arek', 'cilik']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'dikirimi', 'ponakan', 'guse', 'senang', 'ambe', 'arek', 'cilik']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['khoul', 'hadrotussyeh', 'kh', 'maemoen', 'zubair', 'tahlil', 'kh', 'majid', 'kamil', 'mz', 'kh', 'bahauddin', 'nur', 'salim', 'gus']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['khoul', 'hadrotussyeh', 'kh', 'maemoen', 'zubair', 'tahlil', 'kh', 'majid', 'kamil', 'mz', 'kh', 'bahauddin', 'nur', 'salim', 'gus']</t>
+          <t>['dikirimi', 'ponakan', 'guse', 'senang', 'ambe', 'arek', 'cilik']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['kirim', 'ponakan', 'guse', 'senang', 'ambe', 'arek', 'cilik']</t>
         </is>
       </c>
     </row>
@@ -3419,34 +3830,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13532</v>
+        <v>29137</v>
       </c>
       <c r="C84" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rt gus baha aku sih iyess cc</t>
+          <t>tabligh akbar telkom university bersama kh ahmad bahauddin nursalim gus baha tablig</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'gus', 'baha', 'aku', 'sih', 'iyess', 'cc']</t>
+          <t>['tabligh', 'akbar', 'telkom', 'university', 'bersama', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'tablig']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['tablig', 'akbar', 'telkom', 'universitas', 'bersama', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'tablig']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['gus', 'baha', 'iyess', 'cc']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['gus', 'baha', 'iyess', 'cc']</t>
+          <t>['tablig', 'akbar', 'telkom', 'universitas', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'tablig']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['tablig', 'akbar', 'telkom', 'universitas', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'tablig']</t>
         </is>
       </c>
     </row>
@@ -3455,34 +3871,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13533</v>
+        <v>29138</v>
       </c>
       <c r="C85" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">doa dan tahlil bersama memperingati haul ke syaikhuna kh maimun zubair amp harinya syaikhuna kh majil kamil </t>
+          <t>universitas islam sultan agung ngaji bersama gus baha dalam rangka peringatan tahun baru islam narasumber kh</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['doa', 'dan', 'tahlil', 'bersama', 'memperingati', 'haul', 'ke', 'syaikhuna', 'kh', 'maimun', 'zubair', 'amp', 'harinya', 'syaikhuna', 'kh', 'majil', 'kamil']</t>
+          <t>['universitas', 'islam', 'sultan', 'agung', 'ngaji', 'bersama', 'gus', 'baha', 'dalam', 'rangka', 'peringatan', 'tahun', 'baru', 'islam', 'narasumber', 'kh']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['universitas', 'islam', 'sultan', 'agung', 'mengaji', 'bersama', 'gus', 'baha', 'dalam', 'rangka', 'peringatan', 'tahun', 'baru', 'islam', 'narasumber', 'kh']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['doa', 'tahlil', 'memperingati', 'haul', 'syaikhuna', 'kh', 'maimun', 'zubair', 'harinya', 'syaikhuna', 'kh', 'majil', 'kamil']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['doa', 'tahlil', 'ingat', 'haul', 'syaikhuna', 'kh', 'maimun', 'zubair', 'hari', 'syaikhuna', 'kh', 'majil', 'kamil']</t>
+          <t>['universitas', 'islam', 'sultan', 'agung', 'mengaji', 'gus', 'baha', 'rangka', 'peringatan', 'islam', 'narasumber', 'kh']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['universitas', 'islam', 'sultan', 'agung', 'aji', 'gus', 'baha', 'rangka', 'ingat', 'islam', 'narasumber', 'kh']</t>
         </is>
       </c>
     </row>
@@ -3491,34 +3912,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13534</v>
+        <v>29139</v>
       </c>
       <c r="C86" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>lebih dekat dengan gus baha part gus baha dan abi quraish menjawab soal cinta taaruf</t>
+          <t>rt langit sarang rembang kembali menangisi kepergian orang alim yang berada di sana hari ini gus robah bin kh ubab bi</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['lebih', 'dekat', 'dengan', 'gus', 'baha', 'part', 'gus', 'baha', 'dan', 'abi', 'quraish', 'menjawab', 'soal', 'cinta', 'taaruf']</t>
+          <t>['rt', 'langit', 'sarang', 'rembang', 'kembali', 'menangisi', 'kepergian', 'orang', 'alim', 'yang', 'berada', 'di', 'sana', 'hari', 'ini', 'gus', 'robah', 'bin', 'kh', 'ubab', 'bi']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'langit', 'sarang', 'rembang', 'kembali', 'menangisi', 'kepergian', 'orang', 'alim', 'yang', 'berada', 'di', 'sana', 'hari', 'ini', 'gus', 'ubah', 'bin', 'kh', 'ubab', 'bi']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['gus', 'baha', 'part', 'gus', 'baha', 'abi', 'quraish', 'cinta', 'taaruf']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['gus', 'baha', 'part', 'gus', 'baha', 'abi', 'quraish', 'cinta', 'taaruf']</t>
+          <t>['langit', 'sarang', 'rembang', 'menangisi', 'kepergian', 'orang', 'alim', 'gus', 'ubah', 'bin', 'kh', 'ubab', 'bi']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['langit', 'sarang', 'rembang', 'tangis', 'pergi', 'orang', 'alim', 'gus', 'ubah', 'bin', 'kh', 'ubab', 'bi']</t>
         </is>
       </c>
     </row>
@@ -3527,34 +3953,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13535</v>
+        <v>29140</v>
       </c>
       <c r="C87" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>link web shihab amp shihab eps lebih dekat dengan gus baha part part</t>
+          <t xml:space="preserve">tabligh akbar telkom university dengan tema tauhid sebagai inspirasi dalam kontribusi membangun bangsa kh ahmad </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['link', 'web', 'shihab', 'amp', 'shihab', 'eps', 'lebih', 'dekat', 'dengan', 'gus', 'baha', 'part', 'part']</t>
+          <t>['tabligh', 'akbar', 'telkom', 'university', 'dengan', 'tema', 'tauhid', 'sebagai', 'inspirasi', 'dalam', 'kontribusi', 'membangun', 'bangsa', 'kh', 'ahmad']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>['tablig', 'akbar', 'telkom', 'universitas', 'dengan', 'tema', 'tauhid', 'sebagai', 'inspirasi', 'dalam', 'kontribusi', 'membangun', 'bangsa', 'kh', 'ahmad']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['link', 'web', 'shihab', 'shihab', 'eps', 'gus', 'baha', 'part', 'part']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['link', 'web', 'shihab', 'shihab', 'eps', 'gus', 'baha', 'part', 'part']</t>
+          <t>['tablig', 'akbar', 'telkom', 'universitas', 'tema', 'tauhid', 'inspirasi', 'kontribusi', 'membangun', 'bangsa', 'kh', 'ahmad']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['tablig', 'akbar', 'telkom', 'universitas', 'tema', 'tauhid', 'inspirasi', 'kontribusi', 'bangun', 'bangsa', 'kh', 'ahmad']</t>
         </is>
       </c>
     </row>
@@ -3563,34 +3994,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13536</v>
+        <v>29141</v>
       </c>
       <c r="C88" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>tahlil dan doa untuk syaikhuna maimoen zubair</t>
+          <t>live haul pertama kh maimoen zubair himma kudus</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['tahlil', 'dan', 'doa', 'untuk', 'syaikhuna', 'maimoen', 'zubair']</t>
+          <t>['live', 'haul', 'pertama', 'kh', 'maimoen', 'zubair', 'himma', 'kudus']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['live', 'haul', 'pertama', 'kh', 'maimoen', 'zubair', 'himma', 'kudus']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['tahlil', 'doa', 'syaikhuna', 'maimoen', 'zubair']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['tahlil', 'doa', 'syaikhuna', 'maimoen', 'zubair']</t>
+          <t>['live', 'haul', 'kh', 'maimoen', 'zubair', 'himma', 'kudus']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['live', 'haul', 'kh', 'maimoen', 'zubair', 'himma', 'kudus']</t>
         </is>
       </c>
     </row>
@@ -3599,30 +4035,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13537</v>
+        <v>29142</v>
       </c>
       <c r="C89" t="n">
-        <v>175</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>341</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>khoul ke  hadrotussyeh kh maemoen zubair tahlil hari kh majid kamil mz bersama kh bahauddin nur salim gus</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['khoul', 'ke', 'hadrotussyeh', 'kh', 'maemoen', 'zubair', 'tahlil', 'hari', 'kh', 'majid', 'kamil', 'mz', 'bersama', 'kh', 'bahauddin', 'nur', 'salim', 'gus']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['khoul', 'ke', 'hadrotussyeh', 'kh', 'maemoen', 'zubair', 'tahlil', 'hari', 'kh', 'majid', 'kamil', 'mas', 'bersama', 'kh', 'bahauddin', 'nur', 'salim', 'gus']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['khoul', 'hadrotussyeh', 'kh', 'maemoen', 'zubair', 'tahlil', 'kh', 'majid', 'kamil', 'mas', 'kh', 'bahauddin', 'nur', 'salim', 'gus']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['khoul', 'hadrotussyeh', 'kh', 'maemoen', 'zubair', 'tahlil', 'kh', 'majid', 'kamil', 'mas', 'kh', 'bahauddin', 'nur', 'salim', 'gus']</t>
         </is>
       </c>
     </row>
@@ -3631,34 +4076,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13538</v>
+        <v>29143</v>
       </c>
       <c r="C90" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>webinar terjemahan alquran kementerian agama bedah terjemahan alquran edisi penyempurnaan hari rabu</t>
+          <t>rt gus baha aku sih iyess cc</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['webinar', 'terjemahan', 'alquran', 'kementerian', 'agama', 'bedah', 'terjemahan', 'alquran', 'edisi', 'penyempurnaan', 'hari', 'rabu']</t>
+          <t>['rt', 'gus', 'baha', 'aku', 'sih', 'iyess', 'cc']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'gus', 'baha', 'aku', 'sih', 'iya', 'cc']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['webinar', 'terjemahan', 'alquran', 'kementerian', 'agama', 'bedah', 'terjemahan', 'alquran', 'edisi', 'penyempurnaan', 'rabu']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['webinar', 'terjemah', 'alquran', 'menteri', 'agama', 'bedah', 'terjemah', 'alquran', 'edisi', 'sempurna', 'rabu']</t>
+          <t>['gus', 'baha', 'iya', 'cc']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['gus', 'baha', 'iya', 'cc']</t>
         </is>
       </c>
     </row>
@@ -3667,30 +4117,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13539</v>
+        <v>29144</v>
       </c>
       <c r="C91" t="n">
-        <v>175</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>341</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">doa dan tahlil bersama memperingati haul ke syaikhuna kh maimun zubair amp harinya syaikhuna kh majil kamil </t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['doa', 'dan', 'tahlil', 'bersama', 'memperingati', 'haul', 'ke', 'syaikhuna', 'kh', 'maimun', 'zubair', 'amp', 'harinya', 'syaikhuna', 'kh', 'majil', 'kamil']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['doa', 'dan', 'tahlil', 'bersama', 'memperingati', 'haul', 'ke', 'syaikhuna', 'kh', 'maimun', 'zubair', 'amp', 'harinya', 'syaikhuna', 'kh', 'majil', 'kamil']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['doa', 'tahlil', 'memperingati', 'haul', 'syaikhuna', 'kh', 'maimun', 'zubair', 'harinya', 'syaikhuna', 'kh', 'majil', 'kamil']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['doa', 'tahlil', 'ingat', 'haul', 'syaikhuna', 'kh', 'maimun', 'zubair', 'hari', 'syaikhuna', 'kh', 'majil', 'kamil']</t>
         </is>
       </c>
     </row>
@@ -3699,34 +4158,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13540</v>
+        <v>29145</v>
       </c>
       <c r="C92" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>pasinaon piwulang luhur berkurban dalam perspektif kesehatan selasa juli wib bersama</t>
+          <t>lebih dekat dengan gus baha part gus baha dan abi quraish menjawab soal cinta taaruf</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['pasinaon', 'piwulang', 'luhur', 'berkurban', 'dalam', 'perspektif', 'kesehatan', 'selasa', 'juli', 'wib', 'bersama']</t>
+          <t>['lebih', 'dekat', 'dengan', 'gus', 'baha', 'part', 'gus', 'baha', 'dan', 'abi', 'quraish', 'menjawab', 'soal', 'cinta', 'taaruf']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['lebih', 'dekat', 'dengan', 'gus', 'baha', 'part', 'gus', 'baha', 'dan', 'abi', 'quraish', 'menjawab', 'soal', 'cinta', 'taaruf']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['pasinaon', 'piwulang', 'luhur', 'berkurban', 'perspektif', 'kesehatan', 'selasa', 'juli', 'wib']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['pasinaon', 'piwulang', 'luhur', 'kurban', 'perspektif', 'sehat', 'selasa', 'juli', 'wib']</t>
+          <t>['gus', 'baha', 'part', 'gus', 'baha', 'abi', 'quraish', 'cinta', 'taaruf']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['gus', 'baha', 'part', 'gus', 'baha', 'abi', 'quraish', 'cinta', 'taaruf']</t>
         </is>
       </c>
     </row>
@@ -3735,34 +4199,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13541</v>
+        <v>29146</v>
       </c>
       <c r="C93" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">sudah benarkah logika fikih penyembelihan selama ini gus baha dalam silaturahim gus </t>
+          <t>link web shihab amp shihab eps lebih dekat dengan gus baha part part</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['sudah', 'benarkah', 'logika', 'fikih', 'penyembelihan', 'selama', 'ini', 'gus', 'baha', 'dalam', 'silaturahim', 'gus']</t>
+          <t>['link', 'web', 'shihab', 'amp', 'shihab', 'eps', 'lebih', 'dekat', 'dengan', 'gus', 'baha', 'part', 'part']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['link', 'web', 'shihab', 'amp', 'shihab', 'episode', 'lebih', 'dekat', 'dengan', 'gus', 'baha', 'part', 'part']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['logika', 'fikih', 'penyembelihan', 'gus', 'baha', 'silaturahim', 'gus']</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['logika', 'fikih', 'sembelih', 'gus', 'baha', 'silaturahim', 'gus']</t>
+          <t>['link', 'web', 'shihab', 'shihab', 'episode', 'gus', 'baha', 'part', 'part']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['link', 'web', 'shihab', 'shihab', 'episode', 'gus', 'baha', 'part', 'part']</t>
         </is>
       </c>
     </row>
@@ -3771,34 +4240,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13542</v>
+        <v>29147</v>
       </c>
       <c r="C94" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt gus baha dan ning winda bersama keluarga prof quraisy shihab</t>
+          <t>tahlil dan doa untuk syaikhuna maimoen zubair</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'gus', 'baha', 'dan', 'ning', 'winda', 'bersama', 'keluarga', 'prof', 'quraisy', 'shihab']</t>
+          <t>['tahlil', 'dan', 'doa', 'untuk', 'syaikhuna', 'maimoen', 'zubair']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['tahlil', 'dan', 'doa', 'untuk', 'syaikhuna', 'maimoen', 'zubair']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['gus', 'baha', 'ning', 'winda', 'keluarga', 'prof', 'quraisy', 'shihab']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['gus', 'baha', 'ning', 'winda', 'keluarga', 'prof', 'quraisy', 'shihab']</t>
+          <t>['tahlil', 'doa', 'syaikhuna', 'maimoen', 'zubair']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['tahlil', 'doa', 'syaikhuna', 'maimoen', 'zubair']</t>
         </is>
       </c>
     </row>
@@ -3807,34 +4281,35 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13543</v>
+        <v>29148</v>
       </c>
       <c r="C95" t="n">
-        <v>175</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>rt alhamdulillah senang bgt akan dpt kesempatan silaturahmi langsung dgn gus baha teman yang mau titip salam atau pertanya</t>
-        </is>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'alhamdulillah', 'senang', 'bgt', 'akan', 'dpt', 'kesempatan', 'silaturahmi', 'langsung', 'dgn', 'gus', 'baha', 'teman', 'yang', 'mau', 'titip', 'salam', 'atau', 'pertanya']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'senang', 'bgt', 'dpt', 'kesempatan', 'silaturahmi', 'langsung', 'gus', 'baha', 'teman', 'titip', 'salam', 'pertanya']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'senang', 'bgt', 'dpt', 'sempat', 'silaturahmi', 'langsung', 'gus', 'baha', 'teman', 'titip', 'salam', 'tanya']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3843,34 +4318,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13544</v>
+        <v>29149</v>
       </c>
       <c r="C96" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt masya allah dahsyat https</t>
+          <t>webinar terjemahan alquran kementerian agama bedah terjemahan alquran edisi penyempurnaan hari rabu</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'masya', 'allah', 'dahsyat', 'https']</t>
+          <t>['webinar', 'terjemahan', 'alquran', 'kementerian', 'agama', 'bedah', 'terjemahan', 'alquran', 'edisi', 'penyempurnaan', 'hari', 'rabu']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['webinar', 'terjemahan', 'alquran', 'kementerian', 'agama', 'bedah', 'terjemahan', 'alquran', 'edisi', 'penyempurnaan', 'hari', 'rabu']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['masya', 'allah', 'dahsyat', 'https']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['masya', 'allah', 'dahsyat', 'https']</t>
+          <t>['webinar', 'terjemahan', 'alquran', 'kementerian', 'agama', 'bedah', 'terjemahan', 'alquran', 'edisi', 'penyempurnaan', 'rabu']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['webinar', 'terjemah', 'alquran', 'menteri', 'agama', 'bedah', 'terjemah', 'alquran', 'edisi', 'sempurna', 'rabu']</t>
         </is>
       </c>
     </row>
@@ -3879,34 +4359,35 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13545</v>
+        <v>29150</v>
       </c>
       <c r="C97" t="n">
-        <v>175</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>rt tarub ada kang maaf baru bles krn video jg baru di upl</t>
-        </is>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'tarub', 'ada', 'kang', 'maaf', 'baru', 'bles', 'krn', 'video', 'jg', 'baru', 'di', 'upl']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['tarub', 'kang', 'maaf', 'bles', 'video', 'jg', 'upl']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['tarub', 'kang', 'maaf', 'bles', 'video', 'jg', 'upl']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3915,34 +4396,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13546</v>
+        <v>29151</v>
       </c>
       <c r="C98" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ngaji bareng kh ahmad bahauddin nursalim gus baha meneguhkan islam rahmatan lilalamin dzulqadah</t>
+          <t>pasinaon piwulang luhur berkurban dalam perspektif kesehatan selasa juli wib bersama</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'meneguhkan', 'islam', 'rahmatan', 'lilalamin', 'dzulqadah']</t>
+          <t>['pasinaon', 'piwulang', 'luhur', 'berkurban', 'dalam', 'perspektif', 'kesehatan', 'selasa', 'juli', 'wib', 'bersama']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['pasinaon', 'piwulang', 'luhur', 'berkurban', 'dalam', 'perspektif', 'kesehatan', 'selasa', 'juli', 'waktu, indonesia, bagian, barat', 'bersama']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'meneguhkan', 'islam', 'rahmatan', 'lilalamin', 'dzulqadah']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'kh', 'ahmad', 'bahauddin', 'nursalim', 'gus', 'baha', 'teguh', 'islam', 'rahmat', 'lilalamin', 'dzulqadah']</t>
+          <t>['pasinaon', 'piwulang', 'luhur', 'berkurban', 'perspektif', 'kesehatan', 'selasa', 'juli', 'waktu, indonesia, bagian, barat']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['pasinaon', 'piwulang', 'luhur', 'kurban', 'perspektif', 'sehat', 'selasa', 'juli', 'waktu indonesia bagi barat']</t>
         </is>
       </c>
     </row>
@@ -3951,34 +4437,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13547</v>
+        <v>29152</v>
       </c>
       <c r="C99" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>pendaftaran registrasi online</t>
+          <t xml:space="preserve">sudah benarkah logika fikih penyembelihan selama ini gus baha dalam silaturahim gus </t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['pendaftaran', 'registrasi', 'online']</t>
+          <t>['sudah', 'benarkah', 'logika', 'fikih', 'penyembelihan', 'selama', 'ini', 'gus', 'baha', 'dalam', 'silaturahim', 'gus']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['sudah', 'benarkah', 'logika', 'fikih', 'penyembelihan', 'selama', 'ini', 'gus', 'baha', 'dalam', 'silaturahim', 'gus']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['pendaftaran', 'registrasi', 'online']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['daftar', 'registrasi', 'online']</t>
+          <t>['logika', 'fikih', 'penyembelihan', 'gus', 'baha', 'silaturahim', 'gus']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['logika', 'fikih', 'sembelih', 'gus', 'baha', 'silaturahim', 'gus']</t>
         </is>
       </c>
     </row>
@@ -3987,34 +4478,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13548</v>
+        <v>29153</v>
       </c>
       <c r="C100" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>webinar nasional mui kota salatiga kebutuhan ijtihad maqashidi di era pandemi rabu juli wib</t>
+          <t>rt gus baha dan ning winda bersama keluarga prof quraisy shihab</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['webinar', 'nasional', 'mui', 'kota', 'salatiga', 'kebutuhan', 'ijtihad', 'maqashidi', 'di', 'era', 'pandemi', 'rabu', 'juli', 'wib']</t>
+          <t>['rt', 'gus', 'baha', 'dan', 'ning', 'winda', 'bersama', 'keluarga', 'prof', 'quraisy', 'shihab']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'gus', 'baha', 'dan', 'ning', 'winda', 'bersama', 'keluarga', 'prof', 'quraisy', 'shihab']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['webinar', 'nasional', 'mui', 'kota', 'salatiga', 'kebutuhan', 'ijtihad', 'maqashidi', 'era', 'pandemi', 'rabu', 'juli', 'wib']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['webinar', 'nasional', 'mui', 'kota', 'salatiga', 'butuh', 'ijtihad', 'maqashidi', 'era', 'pandemi', 'rabu', 'juli', 'wib']</t>
+          <t>['gus', 'baha', 'ning', 'winda', 'keluarga', 'prof', 'quraisy', 'shihab']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['gus', 'baha', 'ning', 'winda', 'keluarga', 'prof', 'quraisy', 'shihab']</t>
         </is>
       </c>
     </row>
@@ -4023,30 +4519,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13549</v>
+        <v>29154</v>
       </c>
       <c r="C101" t="n">
-        <v>175</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
+        <v>341</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>rt alhamdulillah senang bgt akan dpt kesempatan silaturahmi langsung dgn gus baha teman yang mau titip salam atau pertanya</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'alhamdulillah', 'senang', 'bgt', 'akan', 'dpt', 'kesempatan', 'silaturahmi', 'langsung', 'dgn', 'gus', 'baha', 'teman', 'yang', 'mau', 'titip', 'salam', 'atau', 'pertanya']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'alhamdulillah', 'senang', 'banget', 'akan', 'dapat', 'kesempatan', 'silaturahmi', 'langsung', 'dengan', 'gus', 'baha', 'teman', 'yang', 'mau', 'titip', 'salam', 'atau', 'pertanya']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['alhamdulillah', 'senang', 'banget', 'kesempatan', 'silaturahmi', 'langsung', 'gus', 'baha', 'teman', 'titip', 'salam', 'pertanya']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'senang', 'banget', 'sempat', 'silaturahmi', 'langsung', 'gus', 'baha', 'teman', 'titip', 'salam', 'tanya']</t>
         </is>
       </c>
     </row>
